--- a/exo_control/neural_network_parameters/excel/PV_typical_lstm.xlsx
+++ b/exo_control/neural_network_parameters/excel/PV_typical_lstm.xlsx
@@ -477,5306 +477,5306 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-5.275465982776144e+26</v>
       </c>
       <c r="B2" t="n">
-        <v>3.167438787037795e+29</v>
+        <v>3.069364780394314e+20</v>
       </c>
       <c r="C2" t="n">
-        <v>41.68306732177734</v>
+        <v>44.74430084228516</v>
       </c>
       <c r="D2" t="n">
-        <v>15.32068824768066</v>
+        <v>14.70726585388184</v>
       </c>
       <c r="E2" t="n">
-        <v>-15.33073043823242</v>
+        <v>-19.53913497924805</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4475893974304199</v>
+        <v>-6.632107734680176</v>
       </c>
       <c r="G2" t="n">
-        <v>32.00029373168945</v>
+        <v>28.39145278930664</v>
       </c>
       <c r="H2" t="n">
-        <v>-16.70611190795898</v>
+        <v>-21.74309349060059</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00370774238370359</v>
+        <v>-2.637732991388072e+26</v>
       </c>
       <c r="B3" t="n">
-        <v>1.583719393518898e+29</v>
+        <v>1.534682390197157e+20</v>
       </c>
       <c r="C3" t="n">
-        <v>41.68306732177734</v>
+        <v>43.20271301269531</v>
       </c>
       <c r="D3" t="n">
-        <v>15.32068824768066</v>
+        <v>14.70726585388184</v>
       </c>
       <c r="E3" t="n">
-        <v>-15.6551570892334</v>
+        <v>-17.65507698059082</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.653972625732422</v>
+        <v>-10.35041618347168</v>
       </c>
       <c r="G3" t="n">
-        <v>26.41426277160645</v>
+        <v>24.63883781433105</v>
       </c>
       <c r="H3" t="n">
-        <v>-12.19651031494141</v>
+        <v>-15.92267417907715</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.0109714157320559</v>
+        <v>-1.318866495694036e+26</v>
       </c>
       <c r="B4" t="n">
-        <v>7.918596967594488e+28</v>
+        <v>7.673411950985785e+19</v>
       </c>
       <c r="C4" t="n">
-        <v>43.15377426147461</v>
+        <v>43.20271301269531</v>
       </c>
       <c r="D4" t="n">
-        <v>13.85268497467041</v>
+        <v>13.94982624053955</v>
       </c>
       <c r="E4" t="n">
-        <v>-16.14649963378906</v>
+        <v>-16.62344360351562</v>
       </c>
       <c r="F4" t="n">
-        <v>-10.40121078491211</v>
+        <v>-12.46783638000488</v>
       </c>
       <c r="G4" t="n">
-        <v>24.2559700012207</v>
+        <v>23.48366546630859</v>
       </c>
       <c r="H4" t="n">
-        <v>-12.19651031494141</v>
+        <v>-15.92267417907715</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.02301888551563025</v>
+        <v>-6.59433247847018e+25</v>
       </c>
       <c r="B5" t="n">
-        <v>3.959298483797244e+28</v>
+        <v>3.836705975492892e+19</v>
       </c>
       <c r="C5" t="n">
-        <v>43.63147735595703</v>
+        <v>41.64933395385742</v>
       </c>
       <c r="D5" t="n">
-        <v>15.32387828826904</v>
+        <v>15.27131938934326</v>
       </c>
       <c r="E5" t="n">
-        <v>-16.75951194763184</v>
+        <v>-16.62344360351562</v>
       </c>
       <c r="F5" t="n">
-        <v>-12.42529487609863</v>
+        <v>-13.77118110656738</v>
       </c>
       <c r="G5" t="n">
-        <v>24.2559700012207</v>
+        <v>23.48366546630859</v>
       </c>
       <c r="H5" t="n">
-        <v>-13.90026473999023</v>
+        <v>-17.14018249511719</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.03894870951771736</v>
+        <v>-3.29716623923509e+25</v>
       </c>
       <c r="B6" t="n">
-        <v>1.979649241898622e+28</v>
+        <v>1.918352987746446e+19</v>
       </c>
       <c r="C6" t="n">
-        <v>44.26312255859375</v>
+        <v>41.80462265014648</v>
       </c>
       <c r="D6" t="n">
-        <v>16.59289360046387</v>
+        <v>16.41036987304688</v>
       </c>
       <c r="E6" t="n">
-        <v>-17.47017288208008</v>
+        <v>-15.19459533691406</v>
       </c>
       <c r="F6" t="n">
-        <v>-13.49843597412109</v>
+        <v>-13.77118110656738</v>
       </c>
       <c r="G6" t="n">
-        <v>23.27930641174316</v>
+        <v>23.83797836303711</v>
       </c>
       <c r="H6" t="n">
-        <v>-17.07223320007324</v>
+        <v>-20.63265800476074</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.05691711932420731</v>
+        <v>-1.648583119617545e+25</v>
       </c>
       <c r="B7" t="n">
-        <v>9.898246209493111e+27</v>
+        <v>9.591764938732231e+18</v>
       </c>
       <c r="C7" t="n">
-        <v>44.97560119628906</v>
+        <v>42.10680389404297</v>
       </c>
       <c r="D7" t="n">
-        <v>17.69934844970703</v>
+        <v>17.42125511169434</v>
       </c>
       <c r="E7" t="n">
-        <v>-18.26653671264648</v>
+        <v>-14.58767795562744</v>
       </c>
       <c r="F7" t="n">
-        <v>-13.49843597412109</v>
+        <v>-15.43001461029053</v>
       </c>
       <c r="G7" t="n">
-        <v>24.44832420349121</v>
+        <v>25.49217224121094</v>
       </c>
       <c r="H7" t="n">
-        <v>-20.90551376342773</v>
+        <v>-24.69533348083496</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.07568229585886002</v>
+        <v>-8.242915598087725e+24</v>
       </c>
       <c r="B8" t="n">
-        <v>4.949123104746555e+27</v>
+        <v>4.795882469366115e+18</v>
       </c>
       <c r="C8" t="n">
-        <v>45.71967315673828</v>
+        <v>42.55730438232422</v>
       </c>
       <c r="D8" t="n">
-        <v>18.67382621765137</v>
+        <v>18.36169815063477</v>
       </c>
       <c r="E8" t="n">
-        <v>-19.13469505310059</v>
+        <v>-13.80243015289307</v>
       </c>
       <c r="F8" t="n">
-        <v>-14.434645652771</v>
+        <v>-15.56766414642334</v>
       </c>
       <c r="G8" t="n">
-        <v>25.66646385192871</v>
+        <v>28.35412216186523</v>
       </c>
       <c r="H8" t="n">
-        <v>-25.18171310424805</v>
+        <v>-28.99315643310547</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.09347522854804993</v>
+        <v>-4.121457799043863e+24</v>
       </c>
       <c r="B9" t="n">
-        <v>2.474561552373278e+27</v>
+        <v>2.397941234683058e+18</v>
       </c>
       <c r="C9" t="n">
-        <v>46.42519378662109</v>
+        <v>43.16526412963867</v>
       </c>
       <c r="D9" t="n">
-        <v>19.5178394317627</v>
+        <v>19.27567672729492</v>
       </c>
       <c r="E9" t="n">
-        <v>-19.99841117858887</v>
+        <v>-12.89755630493164</v>
       </c>
       <c r="F9" t="n">
-        <v>-13.97224712371826</v>
+        <v>-15.42700481414795</v>
       </c>
       <c r="G9" t="n">
-        <v>26.98190879821777</v>
+        <v>29.98393249511719</v>
       </c>
       <c r="H9" t="n">
-        <v>-29.76885223388672</v>
+        <v>-33.31224822998047</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.1091156661510468</v>
+        <v>-2.060728899521931e+24</v>
       </c>
       <c r="B10" t="n">
-        <v>1.237280776186639e+27</v>
+        <v>1.198970617341529e+18</v>
       </c>
       <c r="C10" t="n">
-        <v>47.04536437988281</v>
+        <v>43.92863082885742</v>
       </c>
       <c r="D10" t="n">
-        <v>20.25519561767578</v>
+        <v>20.18024826049805</v>
       </c>
       <c r="E10" t="n">
-        <v>-20.79495048522949</v>
+        <v>-11.95176887512207</v>
       </c>
       <c r="F10" t="n">
-        <v>-13.13473415374756</v>
+        <v>-14.97465038299561</v>
       </c>
       <c r="G10" t="n">
-        <v>28.42964744567871</v>
+        <v>31.99996566772461</v>
       </c>
       <c r="H10" t="n">
-        <v>-34.55589294433594</v>
+        <v>-37.50113677978516</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.1216383937001228</v>
+        <v>-1.030364449760966e+24</v>
       </c>
       <c r="B11" t="n">
-        <v>6.186403880933194e+26</v>
+        <v>5.994853086707644e+17</v>
       </c>
       <c r="C11" t="n">
-        <v>47.54191207885742</v>
+        <v>44.82489013671875</v>
       </c>
       <c r="D11" t="n">
-        <v>20.92342758178711</v>
+        <v>21.06496429443359</v>
       </c>
       <c r="E11" t="n">
-        <v>-21.47598457336426</v>
+        <v>-11.05909538269043</v>
       </c>
       <c r="F11" t="n">
-        <v>-11.89374828338623</v>
+        <v>-14.20669841766357</v>
       </c>
       <c r="G11" t="n">
-        <v>30.02584648132324</v>
+        <v>34.26513671875</v>
       </c>
       <c r="H11" t="n">
-        <v>-39.42322540283203</v>
+        <v>-41.45006561279297</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.1301388736069203</v>
+        <v>-5.151822248804828e+23</v>
       </c>
       <c r="B12" t="n">
-        <v>3.093201940466597e+26</v>
+        <v>2.997426543353822e+17</v>
       </c>
       <c r="C12" t="n">
-        <v>47.87897109985352</v>
+        <v>45.80813217163086</v>
       </c>
       <c r="D12" t="n">
-        <v>21.55879402160645</v>
+        <v>21.89404678344727</v>
       </c>
       <c r="E12" t="n">
-        <v>-21.99421882629395</v>
+        <v>-10.31340408325195</v>
       </c>
       <c r="F12" t="n">
-        <v>-9.231568336486816</v>
+        <v>-13.14738750457764</v>
       </c>
       <c r="G12" t="n">
-        <v>31.76572608947754</v>
+        <v>36.67720794677734</v>
       </c>
       <c r="H12" t="n">
-        <v>-44.23960113525391</v>
+        <v>-45.08793640136719</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.1339665871858597</v>
+        <v>-2.575911124402414e+23</v>
       </c>
       <c r="B13" t="n">
-        <v>1.546600970233299e+26</v>
+        <v>1.498713271676911e+17</v>
       </c>
       <c r="C13" t="n">
-        <v>48.03074645996094</v>
+        <v>46.81731414794922</v>
       </c>
       <c r="D13" t="n">
-        <v>22.19157218933105</v>
+        <v>22.61511421203613</v>
       </c>
       <c r="E13" t="n">
-        <v>-22.31992530822754</v>
+        <v>-9.792174339294434</v>
       </c>
       <c r="F13" t="n">
-        <v>-7.546187400817871</v>
+        <v>-11.84336757659912</v>
       </c>
       <c r="G13" t="n">
-        <v>33.62635040283203</v>
+        <v>39.1492919921875</v>
       </c>
       <c r="H13" t="n">
-        <v>-48.87459564208984</v>
+        <v>-48.38329315185547</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.1328158730268479</v>
+        <v>-1.287955562201207e+23</v>
       </c>
       <c r="B14" t="n">
-        <v>7.733004851166493e+25</v>
+        <v>7.493566358384555e+16</v>
       </c>
       <c r="C14" t="n">
-        <v>47.9851188659668</v>
+        <v>47.79122543334961</v>
       </c>
       <c r="D14" t="n">
-        <v>22.84103584289551</v>
+        <v>23.17207717895508</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.44829940795898</v>
+        <v>-9.545373916625977</v>
       </c>
       <c r="F14" t="n">
-        <v>-5.396092414855957</v>
+        <v>-10.35413646697998</v>
       </c>
       <c r="G14" t="n">
-        <v>35.57328414916992</v>
+        <v>41.60726165771484</v>
       </c>
       <c r="H14" t="n">
-        <v>-53.21538543701172</v>
+        <v>-51.34017944335938</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1267463976144791</v>
+        <v>-6.439777811006035e+22</v>
       </c>
       <c r="B15" t="n">
-        <v>3.866502425583246e+25</v>
+        <v>3.746783179192278e+16</v>
       </c>
       <c r="C15" t="n">
-        <v>47.74445343017578</v>
+        <v>48.68153381347656</v>
       </c>
       <c r="D15" t="n">
-        <v>23.51314926147461</v>
+        <v>23.51828956604004</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.39774322509766</v>
+        <v>-9.590879440307617</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.92234992980957</v>
+        <v>-8.74158763885498</v>
       </c>
       <c r="G15" t="n">
-        <v>38.57139587402344</v>
+        <v>43.99360656738281</v>
       </c>
       <c r="H15" t="n">
-        <v>-57.17924118041992</v>
+        <v>-53.98410797119141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.1161250683665276</v>
+        <v>-3.219888905503018e+22</v>
       </c>
       <c r="B16" t="n">
-        <v>1.933251212791623e+25</v>
+        <v>1.873391589596139e+16</v>
       </c>
       <c r="C16" t="n">
-        <v>47.32329940795898</v>
+        <v>49.45464324951172</v>
       </c>
       <c r="D16" t="n">
-        <v>24.20249366760254</v>
+        <v>23.62385749816895</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.20111465454102</v>
+        <v>-9.908763885498047</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2316347360610962</v>
+        <v>-7.063868522644043</v>
       </c>
       <c r="G16" t="n">
-        <v>40.06619262695312</v>
+        <v>46.26519012451172</v>
       </c>
       <c r="H16" t="n">
-        <v>-60.71811676025391</v>
+        <v>-56.35031509399414</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.1015280716121197</v>
+        <v>-1.609944452751509e+22</v>
       </c>
       <c r="B17" t="n">
-        <v>9.666256063958116e+24</v>
+        <v>9366957947980692</v>
       </c>
       <c r="C17" t="n">
-        <v>46.74450302124023</v>
+        <v>50.1109619140625</v>
       </c>
       <c r="D17" t="n">
-        <v>24.89730644226074</v>
+        <v>23.49339866638184</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.89551544189453</v>
+        <v>-10.46970844268799</v>
       </c>
       <c r="F17" t="n">
-        <v>2.591189622879028</v>
+        <v>-5.382792472839355</v>
       </c>
       <c r="G17" t="n">
-        <v>41.78386306762695</v>
+        <v>48.38816833496094</v>
       </c>
       <c r="H17" t="n">
-        <v>-63.81637573242188</v>
+        <v>-58.47046661376953</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.08363806933164597</v>
+        <v>-8.049722263757544e+21</v>
       </c>
       <c r="B18" t="n">
-        <v>4.833128031979058e+24</v>
+        <v>4683478973990345</v>
       </c>
       <c r="C18" t="n">
-        <v>46.03513336181641</v>
+        <v>50.6700439453125</v>
       </c>
       <c r="D18" t="n">
-        <v>25.58486175537109</v>
+        <v>23.15890312194824</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.51503562927246</v>
+        <v>-11.23182964324951</v>
       </c>
       <c r="F18" t="n">
-        <v>5.477777004241943</v>
+        <v>-3.762492418289185</v>
       </c>
       <c r="G18" t="n">
-        <v>43.57984924316406</v>
+        <v>50.33154678344727</v>
       </c>
       <c r="H18" t="n">
-        <v>-66.48431396484375</v>
+        <v>-60.36480712890625</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.06316756069660187</v>
+        <v>-4.024861131878772e+21</v>
       </c>
       <c r="B19" t="n">
-        <v>2.416564015989529e+24</v>
+        <v>2341739486995171</v>
       </c>
       <c r="C19" t="n">
-        <v>45.22344207763672</v>
+        <v>51.16156387329102</v>
       </c>
       <c r="D19" t="n">
-        <v>26.25505638122559</v>
+        <v>22.67386245727539</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.08761405944824</v>
+        <v>-12.14677810668945</v>
       </c>
       <c r="F19" t="n">
-        <v>8.375689506530762</v>
+        <v>-2.268765687942505</v>
       </c>
       <c r="G19" t="n">
-        <v>45.37593078613281</v>
+        <v>52.06630706787109</v>
       </c>
       <c r="H19" t="n">
-        <v>-68.751953125</v>
+        <v>-62.04212188720703</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.04078410744667053</v>
+        <v>-2.012430565939386e+21</v>
       </c>
       <c r="B20" t="n">
-        <v>1.208282007994764e+24</v>
+        <v>1170869743497584</v>
       </c>
       <c r="C20" t="n">
-        <v>44.33589935302734</v>
+        <v>51.61531829833984</v>
       </c>
       <c r="D20" t="n">
-        <v>26.90309715270996</v>
+        <v>22.10214805603027</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.63067817687988</v>
+        <v>-13.16452884674072</v>
       </c>
       <c r="F20" t="n">
-        <v>11.24472522735596</v>
+        <v>-0.959145724773407</v>
       </c>
       <c r="G20" t="n">
-        <v>47.12894439697266</v>
+        <v>53.57047653198242</v>
       </c>
       <c r="H20" t="n">
-        <v>-70.66033935546875</v>
+        <v>-63.50490570068359</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.01707273926585913</v>
+        <v>-1.006215282969693e+21</v>
       </c>
       <c r="B21" t="n">
-        <v>6.041410039973822e+23</v>
+        <v>585434871748790.4</v>
       </c>
       <c r="C21" t="n">
-        <v>43.39570236206055</v>
+        <v>52.05098342895508</v>
       </c>
       <c r="D21" t="n">
-        <v>27.52688789367676</v>
+        <v>21.50518035888672</v>
       </c>
       <c r="E21" t="n">
-        <v>-20.15678977966309</v>
+        <v>-14.23707103729248</v>
       </c>
       <c r="F21" t="n">
-        <v>14.05418395996094</v>
+        <v>0.130423367023468</v>
       </c>
       <c r="G21" t="n">
-        <v>48.81462478637695</v>
+        <v>54.83465576171875</v>
       </c>
       <c r="H21" t="n">
-        <v>-72.25408935546875</v>
+        <v>-64.75907897949219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.007427991628646851</v>
+        <v>-5.031076414848465e+20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.020705019986911e+23</v>
+        <v>292717435874393.5</v>
       </c>
       <c r="C22" t="n">
-        <v>42.4242057800293</v>
+        <v>52.48044204711914</v>
       </c>
       <c r="D22" t="n">
-        <v>28.12726593017578</v>
+        <v>20.93035316467285</v>
       </c>
       <c r="E22" t="n">
-        <v>-19.67564582824707</v>
+        <v>-15.32305335998535</v>
       </c>
       <c r="F22" t="n">
-        <v>16.78075790405273</v>
+        <v>0.9887798428535461</v>
       </c>
       <c r="G22" t="n">
-        <v>50.41983413696289</v>
+        <v>55.86428833007812</v>
       </c>
       <c r="H22" t="n">
-        <v>-73.5770263671875</v>
+        <v>-65.81884765625</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.03222253356128931</v>
+        <v>-2.515538207424232e+20</v>
       </c>
       <c r="B23" t="n">
-        <v>1.510352509993456e+23</v>
+        <v>146358717937195</v>
       </c>
       <c r="C23" t="n">
-        <v>41.44105911254883</v>
+        <v>52.9079704284668</v>
       </c>
       <c r="D23" t="n">
-        <v>28.70280456542969</v>
+        <v>20.40864372253418</v>
       </c>
       <c r="E23" t="n">
-        <v>-19.19329261779785</v>
+        <v>-16.39073181152344</v>
       </c>
       <c r="F23" t="n">
-        <v>19.40749359130859</v>
+        <v>1.629034757614136</v>
       </c>
       <c r="G23" t="n">
-        <v>51.93769836425781</v>
+        <v>55.86428833007812</v>
       </c>
       <c r="H23" t="n">
-        <v>-74.67088317871094</v>
+        <v>-65.81884765625</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.05683505520224572</v>
+        <v>-1.257769103712116e+20</v>
       </c>
       <c r="B24" t="n">
-        <v>7.551762549967278e+22</v>
+        <v>73179358968595.75</v>
       </c>
       <c r="C24" t="n">
-        <v>40.46512985229492</v>
+        <v>53.33021926879883</v>
       </c>
       <c r="D24" t="n">
-        <v>29.25558853149414</v>
+        <v>19.95916557312012</v>
       </c>
       <c r="E24" t="n">
-        <v>-18.71478271484375</v>
+        <v>-17.41798400878906</v>
       </c>
       <c r="F24" t="n">
-        <v>21.92216491699219</v>
+        <v>2.082546949386597</v>
       </c>
       <c r="G24" t="n">
-        <v>53.36470794677734</v>
+        <v>57.48566818237305</v>
       </c>
       <c r="H24" t="n">
-        <v>-74.67088317871094</v>
+        <v>-67.59228515625</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.08100522547960282</v>
+        <v>-6.288845518560581e+19</v>
       </c>
       <c r="B25" t="n">
-        <v>3.775881274983639e+22</v>
+        <v>36589679484296.09</v>
       </c>
       <c r="C25" t="n">
-        <v>39.50674057006836</v>
+        <v>53.7347297668457</v>
       </c>
       <c r="D25" t="n">
-        <v>29.78476333618164</v>
+        <v>19.59874153137207</v>
       </c>
       <c r="E25" t="n">
-        <v>-18.23810577392578</v>
+        <v>-18.38779449462891</v>
       </c>
       <c r="F25" t="n">
-        <v>24.31828689575195</v>
+        <v>2.394976377487183</v>
       </c>
       <c r="G25" t="n">
-        <v>54.70024108886719</v>
+        <v>57.89044952392578</v>
       </c>
       <c r="H25" t="n">
-        <v>-76.47920989990234</v>
+        <v>-68.18158721923828</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.1044805082678795</v>
+        <v>-3.144422759280291e+19</v>
       </c>
       <c r="B26" t="n">
-        <v>1.887940637491819e+22</v>
+        <v>18294839742146.24</v>
       </c>
       <c r="C26" t="n">
-        <v>38.57590484619141</v>
+        <v>54.1320915222168</v>
       </c>
       <c r="D26" t="n">
-        <v>30.29507827758789</v>
+        <v>19.31688117980957</v>
       </c>
       <c r="E26" t="n">
-        <v>-17.76442909240723</v>
+        <v>-19.29991340637207</v>
       </c>
       <c r="F26" t="n">
-        <v>26.59378051757812</v>
+        <v>2.58208155632019</v>
       </c>
       <c r="G26" t="n">
-        <v>55.945556640625</v>
+        <v>58.14816665649414</v>
       </c>
       <c r="H26" t="n">
-        <v>-77.07353973388672</v>
+        <v>-68.66789245605469</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.1271031250059605</v>
+        <v>-1.572211379640145e+19</v>
       </c>
       <c r="B27" t="n">
-        <v>9.439703187459097e+21</v>
+        <v>9147419871071.32</v>
       </c>
       <c r="C27" t="n">
-        <v>37.67887878417969</v>
+        <v>54.52724838256836</v>
       </c>
       <c r="D27" t="n">
-        <v>30.7900276184082</v>
+        <v>19.10159111022949</v>
       </c>
       <c r="E27" t="n">
-        <v>-17.29383277893066</v>
+        <v>-20.16516304016113</v>
       </c>
       <c r="F27" t="n">
-        <v>28.74972724914551</v>
+        <v>2.669535398483276</v>
       </c>
       <c r="G27" t="n">
-        <v>57.10316467285156</v>
+        <v>58.29080200195312</v>
       </c>
       <c r="H27" t="n">
-        <v>-77.57254791259766</v>
+        <v>-69.07427215576172</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1487833192944527</v>
+        <v>-7.861056898200727e+18</v>
       </c>
       <c r="B28" t="n">
-        <v>4.719851593729549e+21</v>
+        <v>4573709935533.863</v>
       </c>
       <c r="C28" t="n">
-        <v>36.81922149658203</v>
+        <v>54.91994094848633</v>
       </c>
       <c r="D28" t="n">
-        <v>31.27197647094727</v>
+        <v>18.94334983825684</v>
       </c>
       <c r="E28" t="n">
-        <v>-16.82580375671387</v>
+        <v>-20.99116516113281</v>
       </c>
       <c r="F28" t="n">
-        <v>30.78865432739258</v>
+        <v>2.683296918869019</v>
       </c>
       <c r="G28" t="n">
-        <v>58.17678070068359</v>
+        <v>58.34309005737305</v>
       </c>
       <c r="H28" t="n">
-        <v>-77.99561309814453</v>
+        <v>-69.41645050048828</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.1695525473356247</v>
+        <v>-3.930528449100363e+18</v>
       </c>
       <c r="B29" t="n">
-        <v>2.359925796864774e+21</v>
+        <v>2286854967765.142</v>
       </c>
       <c r="C29" t="n">
-        <v>35.99568557739258</v>
+        <v>55.30744171142578</v>
       </c>
       <c r="D29" t="n">
-        <v>31.7445011138916</v>
+        <v>18.83335113525391</v>
       </c>
       <c r="E29" t="n">
-        <v>-16.36088562011719</v>
+        <v>-21.7843074798584</v>
       </c>
       <c r="F29" t="n">
-        <v>32.71408081054688</v>
+        <v>2.645790815353394</v>
       </c>
       <c r="G29" t="n">
-        <v>58.17678070068359</v>
+        <v>58.32376098632812</v>
       </c>
       <c r="H29" t="n">
-        <v>-78.35881805419922</v>
+        <v>-69.70629119873047</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.1894155240058899</v>
+        <v>-1.965264224550182e+18</v>
       </c>
       <c r="B30" t="n">
-        <v>1.179962898432387e+21</v>
+        <v>1143427483880.792</v>
       </c>
       <c r="C30" t="n">
-        <v>35.20808410644531</v>
+        <v>55.68361663818359</v>
       </c>
       <c r="D30" t="n">
-        <v>32.2082633972168</v>
+        <v>18.7640438079834</v>
       </c>
       <c r="E30" t="n">
-        <v>-15.89974403381348</v>
+        <v>-22.54805946350098</v>
       </c>
       <c r="F30" t="n">
-        <v>34.53033065795898</v>
+        <v>2.577934980392456</v>
       </c>
       <c r="G30" t="n">
-        <v>60.16409301757812</v>
+        <v>58.24718856811523</v>
       </c>
       <c r="H30" t="n">
-        <v>-78.67390441894531</v>
+        <v>-69.95041656494141</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.2083330929279328</v>
+        <v>-9.826321122750908e+17</v>
       </c>
       <c r="B31" t="n">
-        <v>5.899814492161936e+20</v>
+        <v>571713741938.6274</v>
       </c>
       <c r="C31" t="n">
-        <v>34.45796966552734</v>
+        <v>56.04627990722656</v>
       </c>
       <c r="D31" t="n">
-        <v>32.66119003295898</v>
+        <v>18.72727966308594</v>
       </c>
       <c r="E31" t="n">
-        <v>-15.44290447235107</v>
+        <v>-23.28904914855957</v>
       </c>
       <c r="F31" t="n">
-        <v>36.2420654296875</v>
+        <v>2.489533185958862</v>
       </c>
       <c r="G31" t="n">
-        <v>61.00557327270508</v>
+        <v>58.12710571289062</v>
       </c>
       <c r="H31" t="n">
-        <v>-78.94953155517578</v>
+        <v>-70.15771484375</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.2262843728065491</v>
+        <v>-4.913160561375454e+17</v>
       </c>
       <c r="B32" t="n">
-        <v>2.949907246080968e+20</v>
+        <v>285856870967.5569</v>
       </c>
       <c r="C32" t="n">
-        <v>33.74617004394531</v>
+        <v>56.38967895507812</v>
       </c>
       <c r="D32" t="n">
-        <v>33.10085296630859</v>
+        <v>18.71726226806641</v>
       </c>
       <c r="E32" t="n">
-        <v>-14.99134159088135</v>
+        <v>-24.01321983337402</v>
       </c>
       <c r="F32" t="n">
-        <v>37.85381317138672</v>
+        <v>2.389845609664917</v>
       </c>
       <c r="G32" t="n">
-        <v>61.7781982421875</v>
+        <v>57.97602844238281</v>
       </c>
       <c r="H32" t="n">
-        <v>-79.19280242919922</v>
+        <v>-70.33537292480469</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.2432606130838394</v>
+        <v>-2.456580280687727e+17</v>
       </c>
       <c r="B33" t="n">
-        <v>1.474953623040484e+20</v>
+        <v>142928435499.146</v>
       </c>
       <c r="C33" t="n">
-        <v>33.07303237915039</v>
+        <v>56.71837615966797</v>
       </c>
       <c r="D33" t="n">
-        <v>33.52452087402344</v>
+        <v>18.72737693786621</v>
       </c>
       <c r="E33" t="n">
-        <v>-14.54641342163086</v>
+        <v>-24.71340179443359</v>
       </c>
       <c r="F33" t="n">
-        <v>39.36968231201172</v>
+        <v>2.288031339645386</v>
       </c>
       <c r="G33" t="n">
-        <v>62.48503494262695</v>
+        <v>57.79362869262695</v>
       </c>
       <c r="H33" t="n">
-        <v>-79.40936279296875</v>
+        <v>-70.49025726318359</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.2592698061466217</v>
+        <v>-1.22829014034386e+17</v>
       </c>
       <c r="B34" t="n">
-        <v>7.374768115202419e+19</v>
+        <v>71464217652.67865</v>
       </c>
       <c r="C34" t="n">
-        <v>32.43824005126953</v>
+        <v>57.03007888793945</v>
       </c>
       <c r="D34" t="n">
-        <v>33.9296989440918</v>
+        <v>18.7532901763916</v>
       </c>
       <c r="E34" t="n">
-        <v>-14.10975933074951</v>
+        <v>-25.38976669311523</v>
       </c>
       <c r="F34" t="n">
-        <v>40.79316711425781</v>
+        <v>2.191204786300659</v>
       </c>
       <c r="G34" t="n">
-        <v>63.12873458862305</v>
+        <v>57.58803939819336</v>
       </c>
       <c r="H34" t="n">
-        <v>-79.60369110107422</v>
+        <v>-70.62786102294922</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.6166119437682431</v>
+        <v>-6.141450701720899e+16</v>
       </c>
       <c r="B35" t="n">
-        <v>3.687384057601243e+19</v>
+        <v>35732109461.80667</v>
       </c>
       <c r="C35" t="n">
-        <v>31.84155082702637</v>
+        <v>57.32238388061523</v>
       </c>
       <c r="D35" t="n">
-        <v>34.31379318237305</v>
+        <v>18.79106140136719</v>
       </c>
       <c r="E35" t="n">
-        <v>-13.68302249908447</v>
+        <v>-26.04113578796387</v>
       </c>
       <c r="F35" t="n">
-        <v>42.12718963623047</v>
+        <v>2.10425066947937</v>
       </c>
       <c r="G35" t="n">
-        <v>63.71243667602539</v>
+        <v>57.36555099487305</v>
       </c>
       <c r="H35" t="n">
-        <v>-79.77793121337891</v>
+        <v>-70.75234222412109</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.7913700315542043</v>
+        <v>-3.070725350796469e+16</v>
       </c>
       <c r="B36" t="n">
-        <v>1.843692028799471e+19</v>
+        <v>17866050606.88875</v>
       </c>
       <c r="C36" t="n">
-        <v>31.28268432617188</v>
+        <v>57.59309768676758</v>
       </c>
       <c r="D36" t="n">
-        <v>34.67442321777344</v>
+        <v>18.83755302429199</v>
       </c>
       <c r="E36" t="n">
-        <v>-13.26776695251465</v>
+        <v>-26.66577911376953</v>
       </c>
       <c r="F36" t="n">
-        <v>43.37468719482422</v>
+        <v>2.031096220016479</v>
       </c>
       <c r="G36" t="n">
-        <v>64.23992156982422</v>
+        <v>57.13215255737305</v>
       </c>
       <c r="H36" t="n">
-        <v>-79.93307495117188</v>
+        <v>-70.86795043945312</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.8812774801496261</v>
+        <v>-1.535362677989819e+16</v>
       </c>
       <c r="B37" t="n">
-        <v>9.218460144405646e+18</v>
+        <v>8933052032.280834</v>
       </c>
       <c r="C37" t="n">
-        <v>30.7597484588623</v>
+        <v>57.84016036987305</v>
       </c>
       <c r="D37" t="n">
-        <v>35.01055526733398</v>
+        <v>18.89046096801758</v>
       </c>
       <c r="E37" t="n">
-        <v>-12.86543655395508</v>
+        <v>-27.26184272766113</v>
       </c>
       <c r="F37" t="n">
-        <v>44.53883361816406</v>
+        <v>1.975119352340698</v>
       </c>
       <c r="G37" t="n">
-        <v>64.71337890625</v>
+        <v>56.89372253417969</v>
       </c>
       <c r="H37" t="n">
-        <v>-80.07393646240234</v>
+        <v>-70.97909545898438</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9296748240080627</v>
+        <v>-7676812327521323</v>
       </c>
       <c r="B38" t="n">
-        <v>4.609230057465767e+18</v>
+        <v>4466352951.226023</v>
       </c>
       <c r="C38" t="n">
-        <v>30.27027320861816</v>
+        <v>58.06151580810547</v>
       </c>
       <c r="D38" t="n">
-        <v>35.32228469848633</v>
+        <v>18.94832229614258</v>
       </c>
       <c r="E38" t="n">
-        <v>-12.47733497619629</v>
+        <v>-27.82762718200684</v>
       </c>
       <c r="F38" t="n">
-        <v>45.6231689453125</v>
+        <v>1.939373731613159</v>
       </c>
       <c r="G38" t="n">
-        <v>65.13536834716797</v>
+        <v>56.65595245361328</v>
       </c>
       <c r="H38" t="n">
-        <v>-80.20492553710938</v>
+        <v>-71.09064483642578</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9568075425176931</v>
+        <v>-3838450158163101</v>
       </c>
       <c r="B39" t="n">
-        <v>2.30461556897864e+18</v>
+        <v>2234298049.007251</v>
       </c>
       <c r="C39" t="n">
-        <v>29.81144523620605</v>
+        <v>58.25511932373047</v>
       </c>
       <c r="D39" t="n">
-        <v>35.61057662963867</v>
+        <v>19.01047897338867</v>
       </c>
       <c r="E39" t="n">
-        <v>-12.10467338562012</v>
+        <v>-28.36178779602051</v>
       </c>
       <c r="F39" t="n">
-        <v>46.63170623779297</v>
+        <v>1.926781415939331</v>
       </c>
       <c r="G39" t="n">
-        <v>65.50887298583984</v>
+        <v>56.42435455322266</v>
       </c>
       <c r="H39" t="n">
-        <v>-80.33052825927734</v>
+        <v>-71.20761871337891</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9725854885669305</v>
+        <v>-1917388634810542</v>
       </c>
       <c r="B40" t="n">
-        <v>1.152287696414397e+18</v>
+        <v>1109860638.420638</v>
       </c>
       <c r="C40" t="n">
-        <v>29.38012504577637</v>
+        <v>58.41882705688477</v>
       </c>
       <c r="D40" t="n">
-        <v>35.87717056274414</v>
+        <v>19.07708549499512</v>
       </c>
       <c r="E40" t="n">
-        <v>-11.7484655380249</v>
+        <v>-28.86336326599121</v>
       </c>
       <c r="F40" t="n">
-        <v>46.63170623779297</v>
+        <v>1.940006971359253</v>
       </c>
       <c r="G40" t="n">
-        <v>65.83717346191406</v>
+        <v>56.20395660400391</v>
       </c>
       <c r="H40" t="n">
-        <v>-80.45494842529297</v>
+        <v>-71.33538818359375</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9820687298789548</v>
+        <v>-1035808376381646</v>
       </c>
       <c r="B41" t="n">
-        <v>5.769005745933677e+17</v>
+        <v>602516009.9376979</v>
       </c>
       <c r="C41" t="n">
-        <v>28.97298240661621</v>
+        <v>58.5506477355957</v>
       </c>
       <c r="D41" t="n">
-        <v>36.12448120117188</v>
+        <v>19.14865684509277</v>
       </c>
       <c r="E41" t="n">
-        <v>-11.40945529937744</v>
+        <v>-29.33193206787109</v>
       </c>
       <c r="F41" t="n">
-        <v>48.5062370300293</v>
+        <v>1.981507062911987</v>
       </c>
       <c r="G41" t="n">
-        <v>66.12377166748047</v>
+        <v>55.99942398071289</v>
       </c>
       <c r="H41" t="n">
-        <v>-80.58210754394531</v>
+        <v>-71.47878265380859</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.987941900203179</v>
+        <v>2732521430509195</v>
       </c>
       <c r="B42" t="n">
-        <v>2.596006460055425e+17</v>
+        <v>-11516329.34995532</v>
       </c>
       <c r="C42" t="n">
-        <v>28.5866641998291</v>
+        <v>58.64882278442383</v>
       </c>
       <c r="D42" t="n">
-        <v>36.35530090332031</v>
+        <v>19.22597885131836</v>
       </c>
       <c r="E42" t="n">
-        <v>-11.08803081512451</v>
+        <v>-29.76734733581543</v>
       </c>
       <c r="F42" t="n">
-        <v>49.31110000610352</v>
+        <v>2.053152799606323</v>
       </c>
       <c r="G42" t="n">
-        <v>66.37237548828125</v>
+        <v>55.8145866394043</v>
       </c>
       <c r="H42" t="n">
-        <v>-80.71533203125</v>
+        <v>-71.64181518554688</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9916797959778659</v>
+        <v>-1.358709565948322e+17</v>
       </c>
       <c r="B43" t="n">
-        <v>1.2419103062123e+18</v>
+        <v>2067898276.647739</v>
       </c>
       <c r="C43" t="n">
-        <v>28.21789741516113</v>
+        <v>58.71205902099609</v>
       </c>
       <c r="D43" t="n">
-        <v>36.57263946533203</v>
+        <v>19.3098030090332</v>
       </c>
       <c r="E43" t="n">
-        <v>-10.78417015075684</v>
+        <v>-30.1695613861084</v>
       </c>
       <c r="F43" t="n">
-        <v>50.06083679199219</v>
+        <v>2.155874967575073</v>
       </c>
       <c r="G43" t="n">
-        <v>66.58679962158203</v>
+        <v>55.65210723876953</v>
       </c>
       <c r="H43" t="n">
-        <v>-80.85741424560547</v>
+        <v>-71.82691192626953</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9941187273419753</v>
+        <v>5.723981637422458e+18</v>
       </c>
       <c r="B44" t="n">
-        <v>-4.269220224498844e+19</v>
+        <v>-12858075706.73433</v>
       </c>
       <c r="C44" t="n">
-        <v>27.86364364624023</v>
+        <v>58.73990631103516</v>
       </c>
       <c r="D44" t="n">
-        <v>36.77944564819336</v>
+        <v>19.40055465698242</v>
       </c>
       <c r="E44" t="n">
-        <v>-10.49747848510742</v>
+        <v>-30.53847312927246</v>
       </c>
       <c r="F44" t="n">
-        <v>50.76163101196289</v>
+        <v>2.289313077926636</v>
       </c>
       <c r="G44" t="n">
-        <v>66.77082061767578</v>
+        <v>55.51333999633789</v>
       </c>
       <c r="H44" t="n">
-        <v>-81.01036071777344</v>
+        <v>-72.03451538085938</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9957468887549557</v>
+        <v>-2.409926553526693e+20</v>
       </c>
       <c r="B45" t="n">
-        <v>1.681854477970058e+21</v>
+        <v>87755626374.28186</v>
       </c>
       <c r="C45" t="n">
-        <v>27.52119064331055</v>
+        <v>58.73294067382812</v>
       </c>
       <c r="D45" t="n">
-        <v>36.9784049987793</v>
+        <v>19.49819564819336</v>
       </c>
       <c r="E45" t="n">
-        <v>-10.22719955444336</v>
+        <v>-30.87396430969238</v>
       </c>
       <c r="F45" t="n">
-        <v>51.41968536376953</v>
+        <v>2.451758146286011</v>
       </c>
       <c r="G45" t="n">
-        <v>66.92812347412109</v>
+        <v>55.39836883544922</v>
       </c>
       <c r="H45" t="n">
-        <v>-81.17525482177734</v>
+        <v>-72.26286315917969</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9968569215639252</v>
+        <v>1.01032162231749e+22</v>
       </c>
       <c r="B46" t="n">
-        <v>-6.674270856752614e+22</v>
+        <v>-603132353120.926</v>
       </c>
       <c r="C46" t="n">
-        <v>27.18819808959961</v>
+        <v>58.69295883178711</v>
       </c>
       <c r="D46" t="n">
-        <v>37.17187881469727</v>
+        <v>19.60213851928711</v>
       </c>
       <c r="E46" t="n">
-        <v>-9.972378730773926</v>
+        <v>-31.17597007751465</v>
       </c>
       <c r="F46" t="n">
-        <v>52.04101181030273</v>
+        <v>2.640103101730347</v>
       </c>
       <c r="G46" t="n">
-        <v>67.06214141845703</v>
+        <v>55.30606842041016</v>
       </c>
       <c r="H46" t="n">
-        <v>-81.35260772705078</v>
+        <v>-72.50838470458984</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9976285514130944</v>
+        <v>-4.210939601761051e+23</v>
       </c>
       <c r="B47" t="n">
-        <v>2.67150005334919e+24</v>
+        <v>4206001503134.714</v>
       </c>
       <c r="C47" t="n">
-        <v>26.86263084411621</v>
+        <v>58.6229133605957</v>
       </c>
       <c r="D47" t="n">
-        <v>37.36190032958984</v>
+        <v>19.71140670776367</v>
       </c>
       <c r="E47" t="n">
-        <v>-9.73187255859375</v>
+        <v>-31.44473457336426</v>
       </c>
       <c r="F47" t="n">
-        <v>52.63148880004883</v>
+        <v>2.850332975387573</v>
       </c>
       <c r="G47" t="n">
-        <v>67.17608642578125</v>
+        <v>55.23459625244141</v>
       </c>
       <c r="H47" t="n">
-        <v>-81.54205322265625</v>
+        <v>-72.76628112792969</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9981746413474386</v>
+        <v>1.742506825615408e+25</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.078131715675972e+26</v>
+        <v>-29762302816198.2</v>
       </c>
       <c r="C48" t="n">
-        <v>26.54268455505371</v>
+        <v>58.52668380737305</v>
       </c>
       <c r="D48" t="n">
-        <v>37.55017852783203</v>
+        <v>19.82472038269043</v>
       </c>
       <c r="E48" t="n">
-        <v>-9.504446029663086</v>
+        <v>-31.68096923828125</v>
       </c>
       <c r="F48" t="n">
-        <v>53.19680404663086</v>
+        <v>3.077757596969604</v>
       </c>
       <c r="G48" t="n">
-        <v>67.27291107177734</v>
+        <v>55.18158721923828</v>
       </c>
       <c r="H48" t="n">
-        <v>-81.74293518066406</v>
+        <v>-73.03110504150391</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9985674969278725</v>
+        <v>-7.15110572936458e+26</v>
       </c>
       <c r="B49" t="n">
-        <v>4.38556630697782e+27</v>
+        <v>213762797145894.3</v>
       </c>
       <c r="C49" t="n">
-        <v>26.22627830505371</v>
+        <v>58.4088249206543</v>
       </c>
       <c r="D49" t="n">
-        <v>37.73888397216797</v>
+        <v>19.94075012207031</v>
       </c>
       <c r="E49" t="n">
-        <v>-9.288968086242676</v>
+        <v>-31.88598442077637</v>
       </c>
       <c r="F49" t="n">
-        <v>53.7421875</v>
+        <v>3.317707777023315</v>
       </c>
       <c r="G49" t="n">
-        <v>67.35508728027344</v>
+        <v>55.14468002319336</v>
       </c>
       <c r="H49" t="n">
-        <v>-81.954833984375</v>
+        <v>-73.29775238037109</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9988543652717209</v>
+        <v>2.908118804381666e+28</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.797742454427344e+29</v>
+        <v>-1558423886088694</v>
       </c>
       <c r="C50" t="n">
-        <v>25.91179656982422</v>
+        <v>58.27408218383789</v>
       </c>
       <c r="D50" t="n">
-        <v>37.92974853515625</v>
+        <v>20.05822944641113</v>
       </c>
       <c r="E50" t="n">
-        <v>-9.084406852722168</v>
+        <v>-32.06163024902344</v>
       </c>
       <c r="F50" t="n">
-        <v>54.27217102050781</v>
+        <v>3.565874814987183</v>
       </c>
       <c r="G50" t="n">
-        <v>67.42473602294922</v>
+        <v>55.12173843383789</v>
       </c>
       <c r="H50" t="n">
-        <v>-82.17680358886719</v>
+        <v>-73.56182861328125</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9990667326923807</v>
+        <v>-1.171186394335873e+30</v>
       </c>
       <c r="B51" t="n">
-        <v>7.425370991404493e+30</v>
+        <v>1.153165675925534e+16</v>
       </c>
       <c r="C51" t="n">
-        <v>25.59896659851074</v>
+        <v>58.12695693969727</v>
       </c>
       <c r="D51" t="n">
-        <v>38.12409973144531</v>
+        <v>20.17620658874512</v>
       </c>
       <c r="E51" t="n">
-        <v>-8.890172004699707</v>
+        <v>-32.21026611328125</v>
       </c>
       <c r="F51" t="n">
-        <v>54.79236602783203</v>
+        <v>3.818810224533081</v>
       </c>
       <c r="G51" t="n">
-        <v>67.48390960693359</v>
+        <v>55.11112976074219</v>
       </c>
       <c r="H51" t="n">
-        <v>-82.40558624267578</v>
+        <v>-73.82008361816406</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9992258898627125</v>
+        <v>-5.855931971679365e+29</v>
       </c>
       <c r="B52" t="n">
-        <v>3.712685495702247e+30</v>
+        <v>5765828379627667</v>
       </c>
       <c r="C52" t="n">
-        <v>25.2872371673584</v>
+        <v>57.97139358520508</v>
       </c>
       <c r="D52" t="n">
-        <v>38.32316589355469</v>
+        <v>20.29414367675781</v>
       </c>
       <c r="E52" t="n">
-        <v>-8.705714225769043</v>
+        <v>-32.33459854125977</v>
       </c>
       <c r="F52" t="n">
-        <v>55.3072509765625</v>
+        <v>4.074288368225098</v>
       </c>
       <c r="G52" t="n">
-        <v>67.53410339355469</v>
+        <v>55.11201095581055</v>
       </c>
       <c r="H52" t="n">
-        <v>-82.63844299316406</v>
+        <v>-74.07060241699219</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.447459209561348</v>
+        <v>-2.927965985839682e+29</v>
       </c>
       <c r="B53" t="n">
-        <v>1.856342747851123e+30</v>
+        <v>2882914189813832</v>
       </c>
       <c r="C53" t="n">
-        <v>24.97620391845703</v>
+        <v>57.8099250793457</v>
       </c>
       <c r="D53" t="n">
-        <v>38.52649688720703</v>
+        <v>20.41219520568848</v>
       </c>
       <c r="E53" t="n">
-        <v>-8.529874801635742</v>
+        <v>-32.43697357177734</v>
       </c>
       <c r="F53" t="n">
-        <v>55.81889724731445</v>
+        <v>4.332571983337402</v>
       </c>
       <c r="G53" t="n">
-        <v>67.57660675048828</v>
+        <v>55.12443542480469</v>
       </c>
       <c r="H53" t="n">
-        <v>-82.87344360351562</v>
+        <v>-74.31195068359375</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.4553099131584168</v>
+        <v>-1.463982992919841e+29</v>
       </c>
       <c r="B54" t="n">
-        <v>9.281713739255617e+29</v>
+        <v>1441457094906914</v>
       </c>
       <c r="C54" t="n">
-        <v>24.66490936279297</v>
+        <v>57.64347839355469</v>
       </c>
       <c r="D54" t="n">
-        <v>38.73398208618164</v>
+        <v>20.53077697753906</v>
       </c>
       <c r="E54" t="n">
-        <v>-8.361380577087402</v>
+        <v>-32.51900100708008</v>
       </c>
       <c r="F54" t="n">
-        <v>56.33036041259766</v>
+        <v>4.596194267272949</v>
       </c>
       <c r="G54" t="n">
-        <v>67.61318206787109</v>
+        <v>55.14864730834961</v>
       </c>
       <c r="H54" t="n">
-        <v>-83.10909271240234</v>
+        <v>-74.54238128662109</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.4631548041105271</v>
+        <v>-7.319914964599206e+28</v>
       </c>
       <c r="B55" t="n">
-        <v>4.640856869627808e+29</v>
+        <v>720728547453454.8</v>
       </c>
       <c r="C55" t="n">
-        <v>24.35384559631348</v>
+        <v>57.4759521484375</v>
       </c>
       <c r="D55" t="n">
-        <v>38.94449996948242</v>
+        <v>20.64987754821777</v>
       </c>
       <c r="E55" t="n">
-        <v>-8.199417114257812</v>
+        <v>-32.58424377441406</v>
       </c>
       <c r="F55" t="n">
-        <v>56.84157562255859</v>
+        <v>4.863436698913574</v>
       </c>
       <c r="G55" t="n">
-        <v>67.6448974609375</v>
+        <v>55.18621826171875</v>
       </c>
       <c r="H55" t="n">
-        <v>-83.34333801269531</v>
+        <v>-74.7633056640625</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.470984120965004</v>
+        <v>-3.659957482299603e+28</v>
       </c>
       <c r="B56" t="n">
-        <v>2.320428434813904e+29</v>
+        <v>360364273726725.2</v>
       </c>
       <c r="C56" t="n">
-        <v>24.04339981079102</v>
+        <v>57.30904006958008</v>
       </c>
       <c r="D56" t="n">
-        <v>39.1569938659668</v>
+        <v>20.77035140991211</v>
       </c>
       <c r="E56" t="n">
-        <v>-8.043116569519043</v>
+        <v>-32.63501358032227</v>
       </c>
       <c r="F56" t="n">
-        <v>57.35268020629883</v>
+        <v>5.135727882385254</v>
       </c>
       <c r="G56" t="n">
-        <v>67.67269897460938</v>
+        <v>55.23860168457031</v>
       </c>
       <c r="H56" t="n">
-        <v>-83.57406616210938</v>
+        <v>-74.97574615478516</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.4787757819890976</v>
+        <v>-1.829978741149802e+28</v>
       </c>
       <c r="B57" t="n">
-        <v>1.160214217406952e+29</v>
+        <v>180182136863360.5</v>
       </c>
       <c r="C57" t="n">
-        <v>23.73444747924805</v>
+        <v>57.14279556274414</v>
       </c>
       <c r="D57" t="n">
-        <v>39.36888885498047</v>
+        <v>20.89365577697754</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.892805576324463</v>
+        <v>-32.67276382446289</v>
       </c>
       <c r="F57" t="n">
-        <v>57.86000823974609</v>
+        <v>5.416583061218262</v>
       </c>
       <c r="G57" t="n">
-        <v>67.69668579101562</v>
+        <v>55.30796432495117</v>
       </c>
       <c r="H57" t="n">
-        <v>-83.79669952392578</v>
+        <v>-75.18061828613281</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.4864800637960434</v>
+        <v>-9.149893705749008e+27</v>
       </c>
       <c r="B58" t="n">
-        <v>5.80107108703476e+28</v>
+        <v>90091068431678.06</v>
       </c>
       <c r="C58" t="n">
-        <v>23.42895889282227</v>
+        <v>56.97606658935547</v>
       </c>
       <c r="D58" t="n">
-        <v>39.57546615600586</v>
+        <v>21.0212516784668</v>
       </c>
       <c r="E58" t="n">
-        <v>-7.750705718994141</v>
+        <v>-32.69839096069336</v>
       </c>
       <c r="F58" t="n">
-        <v>58.35491180419922</v>
+        <v>5.710217475891113</v>
       </c>
       <c r="G58" t="n">
-        <v>67.71583557128906</v>
+        <v>55.39616394042969</v>
       </c>
       <c r="H58" t="n">
-        <v>-84.00340270996094</v>
+        <v>-75.37863159179688</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.4939251774549485</v>
+        <v>-4.574946852874504e+27</v>
       </c>
       <c r="B59" t="n">
-        <v>2.90053554351738e+28</v>
+        <v>45045534215836.81</v>
       </c>
       <c r="C59" t="n">
-        <v>23.13374710083008</v>
+        <v>56.80693817138672</v>
       </c>
       <c r="D59" t="n">
-        <v>39.77536392211914</v>
+        <v>21.15390777587891</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.615901470184326</v>
+        <v>-32.71219253540039</v>
       </c>
       <c r="F59" t="n">
-        <v>58.83958435058594</v>
+        <v>6.02017879486084</v>
       </c>
       <c r="G59" t="n">
-        <v>67.73138427734375</v>
+        <v>55.50336456298828</v>
       </c>
       <c r="H59" t="n">
-        <v>-84.19589233398438</v>
+        <v>-75.56983184814453</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.5010343897342682</v>
+        <v>-2.287473426437252e+27</v>
       </c>
       <c r="B60" t="n">
-        <v>1.45026777175869e+28</v>
+        <v>22522767107916.15</v>
       </c>
       <c r="C60" t="n">
-        <v>22.85185432434082</v>
+        <v>56.63382339477539</v>
       </c>
       <c r="D60" t="n">
-        <v>39.96543121337891</v>
+        <v>21.29070091247559</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.488611221313477</v>
+        <v>-32.71413803100586</v>
       </c>
       <c r="F60" t="n">
-        <v>59.31043243408203</v>
+        <v>6.347170829772949</v>
       </c>
       <c r="G60" t="n">
-        <v>67.74399566650391</v>
+        <v>55.62653732299805</v>
       </c>
       <c r="H60" t="n">
-        <v>-84.37099456787109</v>
+        <v>-75.75344085693359</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.5077152037620545</v>
+        <v>-1.143736713218626e+27</v>
       </c>
       <c r="B61" t="n">
-        <v>7.25133885879345e+27</v>
+        <v>11261383553955.78</v>
       </c>
       <c r="C61" t="n">
-        <v>22.58694839477539</v>
+        <v>56.45676040649414</v>
       </c>
       <c r="D61" t="n">
-        <v>40.14217758178711</v>
+        <v>21.42851448059082</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.369598865509033</v>
+        <v>-32.70443725585938</v>
       </c>
       <c r="F61" t="n">
-        <v>59.76343154907227</v>
+        <v>6.687539100646973</v>
       </c>
       <c r="G61" t="n">
-        <v>67.754150390625</v>
+        <v>55.75898742675781</v>
       </c>
       <c r="H61" t="n">
-        <v>-84.52450561523438</v>
+        <v>-75.92801666259766</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.5138719952106476</v>
+        <v>-5.71868356609313e+26</v>
       </c>
       <c r="B62" t="n">
-        <v>3.625669429396725e+27</v>
+        <v>5630691776975.558</v>
       </c>
       <c r="C62" t="n">
-        <v>22.34282112121582</v>
+        <v>56.27812194824219</v>
       </c>
       <c r="D62" t="n">
-        <v>40.30191040039062</v>
+        <v>21.56275367736816</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.259977340698242</v>
+        <v>-32.68416213989258</v>
       </c>
       <c r="F62" t="n">
-        <v>60.19435882568359</v>
+        <v>7.033778190612793</v>
       </c>
       <c r="G62" t="n">
-        <v>67.76260375976562</v>
+        <v>55.8922004699707</v>
       </c>
       <c r="H62" t="n">
-        <v>-84.65170288085938</v>
+        <v>-76.09203338623047</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.5193954610824585</v>
+        <v>-2.859341783046565e+26</v>
       </c>
       <c r="B63" t="n">
-        <v>1.812834714698363e+27</v>
+        <v>2815345888485.408</v>
       </c>
       <c r="C63" t="n">
-        <v>22.12380599975586</v>
+        <v>56.10193634033203</v>
       </c>
       <c r="D63" t="n">
-        <v>40.4403190612793</v>
+        <v>21.68863677978516</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.161322593688965</v>
+        <v>-32.65524673461914</v>
       </c>
       <c r="F63" t="n">
-        <v>60.59849166870117</v>
+        <v>7.376957893371582</v>
       </c>
       <c r="G63" t="n">
-        <v>67.7705078125</v>
+        <v>56.01791763305664</v>
       </c>
       <c r="H63" t="n">
-        <v>-84.74665832519531</v>
+        <v>-76.24482727050781</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.524133335351944</v>
+        <v>-1.429670891523282e+26</v>
       </c>
       <c r="B64" t="n">
-        <v>9.064173573491813e+26</v>
+        <v>1407672944240.298</v>
       </c>
       <c r="C64" t="n">
-        <v>21.93594169616699</v>
+        <v>55.93281555175781</v>
       </c>
       <c r="D64" t="n">
-        <v>40.55110168457031</v>
+        <v>21.80224990844727</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.076328754425049</v>
+        <v>-32.62034606933594</v>
       </c>
       <c r="F64" t="n">
-        <v>60.96910095214844</v>
+        <v>7.708464622497559</v>
       </c>
       <c r="G64" t="n">
-        <v>67.77949523925781</v>
+        <v>56.12950897216797</v>
       </c>
       <c r="H64" t="n">
-        <v>-84.8001708984375</v>
+        <v>-76.38571166992188</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.5278225010633469</v>
+        <v>-7.148354457616412e+25</v>
       </c>
       <c r="B65" t="n">
-        <v>4.532086786745907e+26</v>
+        <v>703836472117.7083</v>
       </c>
       <c r="C65" t="n">
-        <v>21.78965950012207</v>
+        <v>55.77322006225586</v>
       </c>
       <c r="D65" t="n">
-        <v>40.62368011474609</v>
+        <v>21.90335655212402</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.009761810302734</v>
+        <v>-32.58242416381836</v>
       </c>
       <c r="F65" t="n">
-        <v>61.29440689086914</v>
+        <v>8.025782585144043</v>
       </c>
       <c r="G65" t="n">
-        <v>67.79122924804688</v>
+        <v>56.22689056396484</v>
       </c>
       <c r="H65" t="n">
-        <v>-84.79753112792969</v>
+        <v>-76.51533508300781</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.53</v>
+        <v>-3.574177228808206e+25</v>
       </c>
       <c r="B66" t="n">
-        <v>2.266043393372953e+26</v>
+        <v>351918236056.3814</v>
       </c>
       <c r="C66" t="n">
-        <v>21.70331764221191</v>
+        <v>55.62484359741211</v>
       </c>
       <c r="D66" t="n">
-        <v>40.63957595825195</v>
+        <v>21.99260330200195</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.970470428466797</v>
+        <v>-32.54412460327148</v>
       </c>
       <c r="F66" t="n">
-        <v>61.55419921875</v>
+        <v>8.326842308044434</v>
       </c>
       <c r="G66" t="n">
-        <v>67.80666351318359</v>
+        <v>56.31124496459961</v>
       </c>
       <c r="H66" t="n">
-        <v>-84.71444702148438</v>
+        <v>-76.63309478759766</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.5298429954051972</v>
+        <v>-1.787088614404103e+25</v>
       </c>
       <c r="B67" t="n">
-        <v>1.133021696686477e+26</v>
+        <v>175959118025.6878</v>
       </c>
       <c r="C67" t="n">
-        <v>21.70954322814941</v>
+        <v>55.48807144165039</v>
       </c>
       <c r="D67" t="n">
-        <v>40.56609725952148</v>
+        <v>22.07188415527344</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.974552154541016</v>
+        <v>-32.50747680664062</v>
       </c>
       <c r="F67" t="n">
-        <v>61.71272659301758</v>
+        <v>8.611240386962891</v>
       </c>
       <c r="G67" t="n">
-        <v>67.82526397705078</v>
+        <v>56.38575744628906</v>
       </c>
       <c r="H67" t="n">
-        <v>-84.50944519042969</v>
+        <v>-76.73845672607422</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.5258264893293381</v>
+        <v>-8.935443072020515e+24</v>
       </c>
       <c r="B68" t="n">
-        <v>5.665108483432383e+25</v>
+        <v>87979559010.31299</v>
       </c>
       <c r="C68" t="n">
-        <v>21.86880493164062</v>
+        <v>55.36286163330078</v>
       </c>
       <c r="D68" t="n">
-        <v>40.34419250488281</v>
+        <v>22.14268684387207</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.050761699676514</v>
+        <v>-32.47333145141602</v>
       </c>
       <c r="F68" t="n">
-        <v>61.70369338989258</v>
+        <v>8.877690315246582</v>
       </c>
       <c r="G68" t="n">
-        <v>67.84210205078125</v>
+        <v>56.45206451416016</v>
       </c>
       <c r="H68" t="n">
-        <v>-84.11203002929688</v>
+        <v>-76.83082580566406</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.5152675354480744</v>
+        <v>-4.467721536010258e+24</v>
       </c>
       <c r="B69" t="n">
-        <v>2.832554241716192e+25</v>
+        <v>43989779502.59972</v>
       </c>
       <c r="C69" t="n">
-        <v>22.28748512268066</v>
+        <v>55.24871826171875</v>
       </c>
       <c r="D69" t="n">
-        <v>39.87562942504883</v>
+        <v>22.20627593994141</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.244848728179932</v>
+        <v>-32.44142532348633</v>
       </c>
       <c r="F69" t="n">
-        <v>61.41070556640625</v>
+        <v>9.125039100646973</v>
       </c>
       <c r="G69" t="n">
-        <v>67.84932708740234</v>
+        <v>56.51080322265625</v>
       </c>
       <c r="H69" t="n">
-        <v>-83.40702819824219</v>
+        <v>-76.9100341796875</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.4951034384965897</v>
+        <v>-2.233860768005129e+24</v>
       </c>
       <c r="B70" t="n">
-        <v>1.416277120858096e+25</v>
+        <v>21994889748.71914</v>
       </c>
       <c r="C70" t="n">
-        <v>23.08702659606934</v>
+        <v>55.14468383789062</v>
       </c>
       <c r="D70" t="n">
-        <v>39.0694580078125</v>
+        <v>22.26386451721191</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.591730117797852</v>
+        <v>-32.41101455688477</v>
       </c>
       <c r="F70" t="n">
-        <v>60.69661712646484</v>
+        <v>9.353435516357422</v>
       </c>
       <c r="G70" t="n">
-        <v>67.85434722900391</v>
+        <v>56.56270599365234</v>
       </c>
       <c r="H70" t="n">
-        <v>-82.28913116455078</v>
+        <v>-76.97695159912109</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.4655459493398666</v>
+        <v>-1.116930384002564e+24</v>
       </c>
       <c r="B71" t="n">
-        <v>7.081385604290479e+24</v>
+        <v>10997444871.75658</v>
       </c>
       <c r="C71" t="n">
-        <v>24.259033203125</v>
+        <v>55.04935073852539</v>
       </c>
       <c r="D71" t="n">
-        <v>37.98199844360352</v>
+        <v>22.31659507751465</v>
       </c>
       <c r="E71" t="n">
-        <v>-8.055061340332031</v>
+        <v>-32.38159561157227</v>
       </c>
       <c r="F71" t="n">
-        <v>59.55025863647461</v>
+        <v>9.56485652923584</v>
       </c>
       <c r="G71" t="n">
-        <v>67.90864562988281</v>
+        <v>56.60905456542969</v>
       </c>
       <c r="H71" t="n">
-        <v>-80.81846618652344</v>
+        <v>-77.03364562988281</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.4344466561079026</v>
+        <v>-5.584651920012822e+23</v>
       </c>
       <c r="B72" t="n">
-        <v>3.540692802145239e+24</v>
+        <v>5498722433.254497</v>
       </c>
       <c r="C72" t="n">
-        <v>25.49217414855957</v>
+        <v>54.96150207519531</v>
       </c>
       <c r="D72" t="n">
-        <v>36.91716766357422</v>
+        <v>22.36527442932129</v>
       </c>
       <c r="E72" t="n">
-        <v>-8.50523567199707</v>
+        <v>-32.35298538208008</v>
       </c>
       <c r="F72" t="n">
-        <v>58.26532745361328</v>
+        <v>9.761536598205566</v>
       </c>
       <c r="G72" t="n">
-        <v>68.06649017333984</v>
+        <v>56.65083312988281</v>
       </c>
       <c r="H72" t="n">
-        <v>-79.32106781005859</v>
+        <v>-77.08225250244141</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.4108726215362549</v>
+        <v>-2.792325960006411e+23</v>
       </c>
       <c r="B73" t="n">
-        <v>1.77034640107262e+24</v>
+        <v>2749361213.983934</v>
       </c>
       <c r="C73" t="n">
-        <v>26.42692565917969</v>
+        <v>54.88015365600586</v>
       </c>
       <c r="D73" t="n">
-        <v>36.16925048828125</v>
+        <v>22.41043472290039</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.820352554321289</v>
+        <v>-32.32509994506836</v>
       </c>
       <c r="F73" t="n">
-        <v>57.24429321289062</v>
+        <v>9.945308685302734</v>
       </c>
       <c r="G73" t="n">
-        <v>68.27359008789062</v>
+        <v>56.68872451782227</v>
       </c>
       <c r="H73" t="n">
-        <v>-78.131591796875</v>
+        <v>-77.12448120117188</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.3951376968622208</v>
+        <v>-1.396162980003206e+23</v>
       </c>
       <c r="B74" t="n">
-        <v>8.851732005363099e+23</v>
+        <v>1374680604.33028</v>
       </c>
       <c r="C74" t="n">
-        <v>27.05084228515625</v>
+        <v>54.80450820922852</v>
       </c>
       <c r="D74" t="n">
-        <v>35.72325134277344</v>
+        <v>22.45244216918945</v>
       </c>
       <c r="E74" t="n">
-        <v>-9.017024040222168</v>
+        <v>-32.29790115356445</v>
       </c>
       <c r="F74" t="n">
-        <v>56.5556526184082</v>
+        <v>10.11769485473633</v>
       </c>
       <c r="G74" t="n">
-        <v>68.44171905517578</v>
+        <v>56.72319793701172</v>
       </c>
       <c r="H74" t="n">
-        <v>-77.2806396484375</v>
+        <v>-77.16165924072266</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.3837343615293503</v>
+        <v>-6.980814900016028e+22</v>
       </c>
       <c r="B75" t="n">
-        <v>4.425866002681549e+23</v>
+        <v>687340299.4861032</v>
       </c>
       <c r="C75" t="n">
-        <v>27.50300407409668</v>
+        <v>54.73393249511719</v>
       </c>
       <c r="D75" t="n">
-        <v>35.44166564941406</v>
+        <v>22.49160957336426</v>
       </c>
       <c r="E75" t="n">
-        <v>-9.161710739135742</v>
+        <v>-32.27138137817383</v>
       </c>
       <c r="F75" t="n">
-        <v>56.07273864746094</v>
+        <v>10.27995586395264</v>
       </c>
       <c r="G75" t="n">
-        <v>68.54354858398438</v>
+        <v>56.75467300415039</v>
       </c>
       <c r="H75" t="n">
-        <v>-76.65213012695312</v>
+        <v>-77.19476318359375</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.374037321805954</v>
+        <v>-3.490407450008014e+22</v>
       </c>
       <c r="B76" t="n">
-        <v>2.212933001340775e+23</v>
+        <v>343670147.0475833</v>
       </c>
       <c r="C76" t="n">
-        <v>27.88750839233398</v>
+        <v>54.66781616210938</v>
       </c>
       <c r="D76" t="n">
-        <v>35.22087097167969</v>
+        <v>22.52819633483887</v>
       </c>
       <c r="E76" t="n">
-        <v>-9.299429893493652</v>
+        <v>-32.2454948425293</v>
       </c>
       <c r="F76" t="n">
-        <v>55.6793212890625</v>
+        <v>10.43318843841553</v>
       </c>
       <c r="G76" t="n">
-        <v>68.59077453613281</v>
+        <v>56.78351593017578</v>
       </c>
       <c r="H76" t="n">
-        <v>-76.14832305908203</v>
+        <v>-77.22462463378906</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.3647418600320816</v>
+        <v>-1.745203725004007e+22</v>
       </c>
       <c r="B77" t="n">
-        <v>1.106466500670387e+23</v>
+        <v>171835070.8127247</v>
       </c>
       <c r="C77" t="n">
-        <v>28.25609016418457</v>
+        <v>54.60569763183594</v>
       </c>
       <c r="D77" t="n">
-        <v>35.00595092773438</v>
+        <v>22.56243515014648</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.448735237121582</v>
+        <v>-32.22021484375</v>
       </c>
       <c r="F77" t="n">
-        <v>55.30921936035156</v>
+        <v>10.57830429077148</v>
       </c>
       <c r="G77" t="n">
-        <v>68.60432434082031</v>
+        <v>56.81000900268555</v>
       </c>
       <c r="H77" t="n">
-        <v>-75.70998382568359</v>
+        <v>-77.25179290771484</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.3553935158252716</v>
+        <v>-8.726018625020035e+21</v>
       </c>
       <c r="B78" t="n">
-        <v>5.532332503351937e+22</v>
+        <v>85917532.68045226</v>
       </c>
       <c r="C78" t="n">
-        <v>28.62676811218262</v>
+        <v>54.54711532592773</v>
       </c>
       <c r="D78" t="n">
-        <v>34.7764892578125</v>
+        <v>22.59453010559082</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.613452911376953</v>
+        <v>-32.19549560546875</v>
       </c>
       <c r="F78" t="n">
-        <v>54.93428039550781</v>
+        <v>10.71606731414795</v>
       </c>
       <c r="G78" t="n">
-        <v>68.60094451904297</v>
+        <v>56.83443450927734</v>
       </c>
       <c r="H78" t="n">
-        <v>-75.30776214599609</v>
+        <v>-77.27678680419922</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.3459080374240875</v>
+        <v>-4.363009312510017e+21</v>
       </c>
       <c r="B79" t="n">
-        <v>2.766166251675968e+22</v>
+        <v>42958763.60016678</v>
       </c>
       <c r="C79" t="n">
-        <v>29.00288391113281</v>
+        <v>54.4917106628418</v>
       </c>
       <c r="D79" t="n">
-        <v>34.52793502807617</v>
+        <v>22.62466239929199</v>
       </c>
       <c r="E79" t="n">
-        <v>-9.791417121887207</v>
+        <v>-32.17130279541016</v>
       </c>
       <c r="F79" t="n">
-        <v>54.54596328735352</v>
+        <v>10.84715938568115</v>
       </c>
       <c r="G79" t="n">
-        <v>68.59140014648438</v>
+        <v>56.8570556640625</v>
       </c>
       <c r="H79" t="n">
-        <v>-74.92765045166016</v>
+        <v>-77.29994964599609</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.336345699429512</v>
+        <v>-2.181504656255009e+21</v>
       </c>
       <c r="B80" t="n">
-        <v>1.383083125837984e+22</v>
+        <v>21479379.04651216</v>
       </c>
       <c r="C80" t="n">
-        <v>29.38204765319824</v>
+        <v>54.43915176391602</v>
       </c>
       <c r="D80" t="n">
-        <v>34.26224517822266</v>
+        <v>22.65299987792969</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.978775024414062</v>
+        <v>-32.14759063720703</v>
       </c>
       <c r="F80" t="n">
-        <v>54.14429473876953</v>
+        <v>10.9721212387085</v>
       </c>
       <c r="G80" t="n">
-        <v>68.58174896240234</v>
+        <v>56.8780517578125</v>
       </c>
       <c r="H80" t="n">
-        <v>-74.56455993652344</v>
+        <v>-77.32159423828125</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.3268225336074829</v>
+        <v>-1.090752328127504e+21</v>
       </c>
       <c r="B81" t="n">
-        <v>6.915415629189921e+21</v>
+        <v>10739686.75676335</v>
       </c>
       <c r="C81" t="n">
-        <v>29.75965690612793</v>
+        <v>54.38916397094727</v>
       </c>
       <c r="D81" t="n">
-        <v>33.98402786254883</v>
+        <v>22.6796817779541</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.17160224914551</v>
+        <v>-32.12431716918945</v>
       </c>
       <c r="F81" t="n">
-        <v>53.73288345336914</v>
+        <v>11.09145259857178</v>
       </c>
       <c r="G81" t="n">
-        <v>68.57436370849609</v>
+        <v>56.89761734008789</v>
       </c>
       <c r="H81" t="n">
-        <v>-74.21875762939453</v>
+        <v>-77.34196472167969</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.3174323952198029</v>
+        <v>-5.453761640637522e+20</v>
       </c>
       <c r="B82" t="n">
-        <v>3.45770781459496e+21</v>
+        <v>5369840.599516852</v>
       </c>
       <c r="C82" t="n">
-        <v>30.13199234008789</v>
+        <v>54.34148788452148</v>
       </c>
       <c r="D82" t="n">
-        <v>33.69782638549805</v>
+        <v>22.7048454284668</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.36657810211182</v>
+        <v>-32.10146331787109</v>
       </c>
       <c r="F82" t="n">
-        <v>53.31598663330078</v>
+        <v>11.20557308197021</v>
       </c>
       <c r="G82" t="n">
-        <v>68.57131958007812</v>
+        <v>56.91595840454102</v>
       </c>
       <c r="H82" t="n">
-        <v>-73.88961029052734</v>
+        <v>-77.3612060546875</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.3082558399438858</v>
+        <v>-2.726880820318761e+20</v>
       </c>
       <c r="B83" t="n">
-        <v>1.72885390729748e+21</v>
+        <v>2684917.509034544</v>
       </c>
       <c r="C83" t="n">
-        <v>30.49585914611816</v>
+        <v>54.29594802856445</v>
       </c>
       <c r="D83" t="n">
-        <v>33.40707778930664</v>
+        <v>22.72860908508301</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.56171035766602</v>
+        <v>-32.07899856567383</v>
       </c>
       <c r="F83" t="n">
-        <v>52.89560317993164</v>
+        <v>11.31483840942383</v>
       </c>
       <c r="G83" t="n">
-        <v>68.57314300537109</v>
+        <v>56.93317794799805</v>
       </c>
       <c r="H83" t="n">
-        <v>-73.57478332519531</v>
+        <v>-77.37947845458984</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.2993714332580567</v>
+        <v>-1.36344041015938e+20</v>
       </c>
       <c r="B84" t="n">
-        <v>8.644269536487401e+20</v>
+        <v>1342494.050531683</v>
       </c>
       <c r="C84" t="n">
-        <v>30.84814071655273</v>
+        <v>54.25233459472656</v>
       </c>
       <c r="D84" t="n">
-        <v>33.11162185668945</v>
+        <v>22.75108337402344</v>
       </c>
       <c r="E84" t="n">
-        <v>-10.75929832458496</v>
+        <v>-32.05691909790039</v>
       </c>
       <c r="F84" t="n">
-        <v>52.46448135375977</v>
+        <v>11.41957664489746</v>
       </c>
       <c r="G84" t="n">
-        <v>68.57676696777344</v>
+        <v>56.94944000244141</v>
       </c>
       <c r="H84" t="n">
-        <v>-73.26659393310547</v>
+        <v>-77.39693450927734</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.2906968188285828</v>
+        <v>-6.817202050796902e+19</v>
       </c>
       <c r="B85" t="n">
-        <v>4.322134768243701e+20</v>
+        <v>670878.1587120323</v>
       </c>
       <c r="C85" t="n">
-        <v>31.19210433959961</v>
+        <v>54.21054840087891</v>
       </c>
       <c r="D85" t="n">
-        <v>32.81640243530273</v>
+        <v>22.77236366271973</v>
       </c>
       <c r="E85" t="n">
-        <v>-10.95551109313965</v>
+        <v>-32.03519439697266</v>
       </c>
       <c r="F85" t="n">
-        <v>52.03483200073242</v>
+        <v>11.52006340026855</v>
       </c>
       <c r="G85" t="n">
-        <v>68.58469390869141</v>
+        <v>56.9648323059082</v>
       </c>
       <c r="H85" t="n">
-        <v>-72.97203063964844</v>
+        <v>-77.41358947753906</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.6222255528942744</v>
+        <v>-3.408601025398452e+19</v>
       </c>
       <c r="B86" t="n">
-        <v>2.161067384121857e+20</v>
+        <v>339375.1083979356</v>
       </c>
       <c r="C86" t="n">
-        <v>31.52593803405762</v>
+        <v>54.17041397094727</v>
       </c>
       <c r="D86" t="n">
-        <v>32.52443695068359</v>
+        <v>22.79254150390625</v>
       </c>
       <c r="E86" t="n">
-        <v>-11.14844131469727</v>
+        <v>-32.01383972167969</v>
       </c>
       <c r="F86" t="n">
-        <v>51.61014938354492</v>
+        <v>11.61655139923096</v>
       </c>
       <c r="G86" t="n">
-        <v>68.59746551513672</v>
+        <v>56.97946929931641</v>
       </c>
       <c r="H86" t="n">
-        <v>-72.69121551513672</v>
+        <v>-77.42958068847656</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.8045971373485247</v>
+        <v>-1.704300512699201e+19</v>
       </c>
       <c r="B87" t="n">
-        <v>1.080533692060676e+20</v>
+        <v>127605.8767206174</v>
       </c>
       <c r="C87" t="n">
-        <v>31.84856605529785</v>
+        <v>54.13185119628906</v>
       </c>
       <c r="D87" t="n">
-        <v>32.23838806152344</v>
+        <v>22.81169891357422</v>
       </c>
       <c r="E87" t="n">
-        <v>-11.33722591400146</v>
+        <v>-31.99283409118652</v>
       </c>
       <c r="F87" t="n">
-        <v>51.19327163696289</v>
+        <v>11.70925331115723</v>
       </c>
       <c r="G87" t="n">
-        <v>68.61478424072266</v>
+        <v>56.99345016479492</v>
       </c>
       <c r="H87" t="n">
-        <v>-72.42295074462891</v>
+        <v>-77.44493865966797</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9018194933871665</v>
+        <v>-8.521502563503516e+18</v>
       </c>
       <c r="B88" t="n">
-        <v>5.40266846040018e+19</v>
+        <v>515324.6212435438</v>
       </c>
       <c r="C88" t="n">
-        <v>32.15950393676758</v>
+        <v>54.09475708007812</v>
       </c>
       <c r="D88" t="n">
-        <v>31.95976829528809</v>
+        <v>22.82990646362305</v>
       </c>
       <c r="E88" t="n">
-        <v>-11.52101802825928</v>
+        <v>-31.97218894958496</v>
       </c>
       <c r="F88" t="n">
-        <v>50.78611755371094</v>
+        <v>11.79838371276855</v>
       </c>
       <c r="G88" t="n">
-        <v>68.63642120361328</v>
+        <v>57.00685501098633</v>
       </c>
       <c r="H88" t="n">
-        <v>-72.16571807861328</v>
+        <v>-77.45967864990234</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9520648774696855</v>
+        <v>-4.260751281524223e+18</v>
       </c>
       <c r="B89" t="n">
-        <v>2.701334226512848e+19</v>
+        <v>-4602849.512011253</v>
       </c>
       <c r="C89" t="n">
-        <v>32.45828247070312</v>
+        <v>54.05904006958008</v>
       </c>
       <c r="D89" t="n">
-        <v>31.68936729431152</v>
+        <v>22.84723472595215</v>
       </c>
       <c r="E89" t="n">
-        <v>-11.69889640808105</v>
+        <v>-31.95190238952637</v>
       </c>
       <c r="F89" t="n">
-        <v>50.38993835449219</v>
+        <v>11.88409233093262</v>
       </c>
       <c r="G89" t="n">
-        <v>68.66218566894531</v>
+        <v>57.01970291137695</v>
       </c>
       <c r="H89" t="n">
-        <v>-71.91867828369141</v>
+        <v>-77.473876953125</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9772500079091653</v>
+        <v>-2.130375647636576e+18</v>
       </c>
       <c r="B90" t="n">
-        <v>1.350667252878001e+19</v>
+        <v>50185615.70202379</v>
       </c>
       <c r="C90" t="n">
-        <v>32.74482727050781</v>
+        <v>54.0246467590332</v>
       </c>
       <c r="D90" t="n">
-        <v>31.42819786071777</v>
+        <v>22.86374092102051</v>
       </c>
       <c r="E90" t="n">
-        <v>-11.87058639526367</v>
+        <v>-31.93197059631348</v>
       </c>
       <c r="F90" t="n">
-        <v>50.00583267211914</v>
+        <v>11.96656322479248</v>
       </c>
       <c r="G90" t="n">
-        <v>68.69166564941406</v>
+        <v>57.03211212158203</v>
       </c>
       <c r="H90" t="n">
-        <v>-71.68040466308594</v>
+        <v>-77.48751831054688</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9894999089882813</v>
+        <v>-1.065187616676977e+18</v>
       </c>
       <c r="B91" t="n">
-        <v>6.753283697973535e+18</v>
+        <v>-543410380.7805519</v>
       </c>
       <c r="C91" t="n">
-        <v>33.01922607421875</v>
+        <v>53.99149322509766</v>
       </c>
       <c r="D91" t="n">
-        <v>31.1768627166748</v>
+        <v>22.87947845458984</v>
       </c>
       <c r="E91" t="n">
-        <v>-12.03582096099854</v>
+        <v>-31.91240119934082</v>
       </c>
       <c r="F91" t="n">
-        <v>49.6343879699707</v>
+        <v>12.04593658447266</v>
       </c>
       <c r="G91" t="n">
-        <v>68.72459411621094</v>
+        <v>57.04408645629883</v>
       </c>
       <c r="H91" t="n">
-        <v>-71.44937133789062</v>
+        <v>-77.50070190429688</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9952848470510998</v>
+        <v>-5.326000337884611e+17</v>
       </c>
       <c r="B92" t="n">
-        <v>3.378609952656906e+18</v>
+        <v>5903793000.555429</v>
       </c>
       <c r="C92" t="n">
-        <v>33.28158950805664</v>
+        <v>53.95954895019531</v>
       </c>
       <c r="D92" t="n">
-        <v>30.93586730957031</v>
+        <v>22.89449882507324</v>
       </c>
       <c r="E92" t="n">
-        <v>-12.1945219039917</v>
+        <v>-31.89319229125977</v>
       </c>
       <c r="F92" t="n">
-        <v>49.27604293823242</v>
+        <v>12.12233257293701</v>
       </c>
       <c r="G92" t="n">
-        <v>68.76063537597656</v>
+        <v>57.0556640625</v>
       </c>
       <c r="H92" t="n">
-        <v>-71.22414398193359</v>
+        <v>-77.51332092285156</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9979388260252054</v>
+        <v>-2.661133840215833e+17</v>
       </c>
       <c r="B93" t="n">
-        <v>1.616013579338198e+18</v>
+        <v>-64317723292.9562</v>
       </c>
       <c r="C93" t="n">
-        <v>33.5320930480957</v>
+        <v>53.92875671386719</v>
       </c>
       <c r="D93" t="n">
-        <v>30.70551681518555</v>
+        <v>22.90884590148926</v>
       </c>
       <c r="E93" t="n">
-        <v>-12.34659385681152</v>
+        <v>-31.87436294555664</v>
       </c>
       <c r="F93" t="n">
-        <v>48.93097305297852</v>
+        <v>12.19588375091553</v>
       </c>
       <c r="G93" t="n">
-        <v>68.79952239990234</v>
+        <v>57.06691741943359</v>
       </c>
       <c r="H93" t="n">
-        <v>-71.00345611572266</v>
+        <v>-77.52549743652344</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9991224076875155</v>
+        <v>-1.386382620988956e+17</v>
       </c>
       <c r="B94" t="n">
-        <v>3.523215465805894e+18</v>
+        <v>702567624574.5155</v>
       </c>
       <c r="C94" t="n">
-        <v>33.77093887329102</v>
+        <v>53.8990592956543</v>
       </c>
       <c r="D94" t="n">
-        <v>30.48629951477051</v>
+        <v>22.92255401611328</v>
       </c>
       <c r="E94" t="n">
-        <v>-12.49218368530273</v>
+        <v>-31.85590362548828</v>
       </c>
       <c r="F94" t="n">
-        <v>48.59938430786133</v>
+        <v>12.26669025421143</v>
       </c>
       <c r="G94" t="n">
-        <v>68.84092712402344</v>
+        <v>57.07781982421875</v>
       </c>
       <c r="H94" t="n">
-        <v>-70.78597259521484</v>
+        <v>-77.53721618652344</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9996358465974937</v>
+        <v>9.721785749014358e+16</v>
       </c>
       <c r="B95" t="n">
-        <v>-9.832557261767216e+19</v>
+        <v>-7694081506664.291</v>
       </c>
       <c r="C95" t="n">
-        <v>33.99847412109375</v>
+        <v>53.87045669555664</v>
       </c>
       <c r="D95" t="n">
-        <v>30.27763557434082</v>
+        <v>22.9356632232666</v>
       </c>
       <c r="E95" t="n">
-        <v>-12.63131809234619</v>
+        <v>-31.83782768249512</v>
       </c>
       <c r="F95" t="n">
-        <v>48.28081130981445</v>
+        <v>12.33486080169678</v>
       </c>
       <c r="G95" t="n">
-        <v>68.88483428955078</v>
+        <v>57.08844757080078</v>
       </c>
       <c r="H95" t="n">
-        <v>-70.57056427001953</v>
+        <v>-77.54844665527344</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9998526500690141</v>
+        <v>-4.909155624791864e+18</v>
       </c>
       <c r="B96" t="n">
-        <v>3.622479642131418e+21</v>
+        <v>84468022844486.91</v>
       </c>
       <c r="C96" t="n">
-        <v>34.21512222290039</v>
+        <v>53.84288024902344</v>
       </c>
       <c r="D96" t="n">
-        <v>30.07958984375</v>
+        <v>22.94820785522461</v>
       </c>
       <c r="E96" t="n">
-        <v>-12.76382923126221</v>
+        <v>-31.82015037536621</v>
       </c>
       <c r="F96" t="n">
-        <v>47.97508239746094</v>
+        <v>12.40047645568848</v>
       </c>
       <c r="G96" t="n">
-        <v>68.93095397949219</v>
+        <v>57.09877014160156</v>
       </c>
       <c r="H96" t="n">
-        <v>-70.35662841796875</v>
+        <v>-77.55922698974609</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9999418206158192</v>
+        <v>1.448160485449124e+20</v>
       </c>
       <c r="B97" t="n">
-        <v>-1.322579200083679e+23</v>
+        <v>-929505980442684.6</v>
       </c>
       <c r="C97" t="n">
-        <v>34.42104721069336</v>
+        <v>53.81631088256836</v>
       </c>
       <c r="D97" t="n">
-        <v>29.89229393005371</v>
+        <v>22.96021270751953</v>
       </c>
       <c r="E97" t="n">
-        <v>-12.88974285125732</v>
+        <v>-31.80285835266113</v>
       </c>
       <c r="F97" t="n">
-        <v>47.68227386474609</v>
+        <v>12.46363067626953</v>
       </c>
       <c r="G97" t="n">
-        <v>68.97916412353516</v>
+        <v>57.10881805419922</v>
       </c>
       <c r="H97" t="n">
-        <v>-70.1434326171875</v>
+        <v>-77.56957244873047</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9999775686489516</v>
+        <v>-4.293093310345006e+21</v>
       </c>
       <c r="B98" t="n">
-        <v>4.807653224364145e+24</v>
+        <v>1.025169128055992e+16</v>
       </c>
       <c r="C98" t="n">
-        <v>34.61613845825195</v>
+        <v>53.79072570800781</v>
       </c>
       <c r="D98" t="n">
-        <v>29.71497917175293</v>
+        <v>22.97170257568359</v>
       </c>
       <c r="E98" t="n">
-        <v>-13.00861740112305</v>
+        <v>-31.78596878051758</v>
       </c>
       <c r="F98" t="n">
-        <v>47.40196990966797</v>
+        <v>12.52441310882568</v>
       </c>
       <c r="G98" t="n">
-        <v>69.02947235107422</v>
+        <v>57.11861038208008</v>
       </c>
       <c r="H98" t="n">
-        <v>-69.93101501464844</v>
+        <v>-77.57945251464844</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9999915482547852</v>
+        <v>1.269970672643158e+23</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.74018060188314e+26</v>
+        <v>-1.133138222955484e+17</v>
       </c>
       <c r="C99" t="n">
-        <v>34.80049133300781</v>
+        <v>53.76607894897461</v>
       </c>
       <c r="D99" t="n">
-        <v>29.54791641235352</v>
+        <v>22.98271560668945</v>
       </c>
       <c r="E99" t="n">
-        <v>-13.12072467803955</v>
+        <v>-31.76948547363281</v>
       </c>
       <c r="F99" t="n">
-        <v>47.13431930541992</v>
+        <v>12.58290672302246</v>
       </c>
       <c r="G99" t="n">
-        <v>69.08157348632812</v>
+        <v>57.12814712524414</v>
       </c>
       <c r="H99" t="n">
-        <v>-69.71905517578125</v>
+        <v>-77.58895111083984</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9999968854444498</v>
+        <v>-3.749475481902881e+24</v>
       </c>
       <c r="B100" t="n">
-        <v>6.273199690739515e+27</v>
+        <v>1.255095200575239e+18</v>
       </c>
       <c r="C100" t="n">
-        <v>34.97433853149414</v>
+        <v>53.74237442016602</v>
       </c>
       <c r="D100" t="n">
-        <v>29.39035224914551</v>
+        <v>22.99326515197754</v>
       </c>
       <c r="E100" t="n">
-        <v>-13.2257833480835</v>
+        <v>-31.75340461730957</v>
       </c>
       <c r="F100" t="n">
-        <v>46.87892532348633</v>
+        <v>12.63917827606201</v>
       </c>
       <c r="G100" t="n">
-        <v>69.13544464111328</v>
+        <v>57.13745880126953</v>
       </c>
       <c r="H100" t="n">
-        <v>-69.50798034667969</v>
+        <v>-77.59796905517578</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9999988764652088</v>
+        <v>1.104920324868319e+26</v>
       </c>
       <c r="B101" t="n">
-        <v>-2.252688501042677e+29</v>
+        <v>-1.392965589315301e+19</v>
       </c>
       <c r="C101" t="n">
-        <v>35.13770294189453</v>
+        <v>53.71955871582031</v>
       </c>
       <c r="D101" t="n">
-        <v>29.24239158630371</v>
+        <v>23.00338172912598</v>
       </c>
       <c r="E101" t="n">
-        <v>-13.32395553588867</v>
+        <v>-31.73773574829102</v>
       </c>
       <c r="F101" t="n">
-        <v>46.63605880737305</v>
+        <v>12.69332313537598</v>
       </c>
       <c r="G101" t="n">
-        <v>69.19075775146484</v>
+        <v>57.14656448364258</v>
       </c>
       <c r="H101" t="n">
-        <v>-69.29795074462891</v>
+        <v>-77.60662078857422</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.9999996028916357</v>
+        <v>-3.250162743208979e+27</v>
       </c>
       <c r="B102" t="n">
-        <v>8.059542911411421e+30</v>
+        <v>1.548956471699228e+20</v>
       </c>
       <c r="C102" t="n">
-        <v>35.29093170166016</v>
+        <v>53.6976203918457</v>
       </c>
       <c r="D102" t="n">
-        <v>29.10373306274414</v>
+        <v>23.01308059692383</v>
       </c>
       <c r="E102" t="n">
-        <v>-13.41524600982666</v>
+        <v>-31.72248840332031</v>
       </c>
       <c r="F102" t="n">
-        <v>46.40560150146484</v>
+        <v>12.74539470672607</v>
       </c>
       <c r="G102" t="n">
-        <v>69.24740600585938</v>
+        <v>57.15542221069336</v>
       </c>
       <c r="H102" t="n">
-        <v>-69.08891296386719</v>
+        <v>-77.61483001708984</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.9999998623600387</v>
+        <v>-1.625081371604489e+27</v>
       </c>
       <c r="B103" t="n">
-        <v>4.02977145570571e+30</v>
+        <v>7.744782358496141e+19</v>
       </c>
       <c r="C103" t="n">
-        <v>35.43467712402344</v>
+        <v>53.67652893066406</v>
       </c>
       <c r="D103" t="n">
-        <v>28.97352027893066</v>
+        <v>23.02238464355469</v>
       </c>
       <c r="E103" t="n">
-        <v>-13.49993324279785</v>
+        <v>-31.70765495300293</v>
       </c>
       <c r="F103" t="n">
-        <v>46.18692779541016</v>
+        <v>12.79547882080078</v>
       </c>
       <c r="G103" t="n">
-        <v>69.30542755126953</v>
+        <v>57.16408157348633</v>
       </c>
       <c r="H103" t="n">
-        <v>-68.88182067871094</v>
+        <v>-77.62262725830078</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.180302591919899</v>
+        <v>-8.125406858022447e+26</v>
       </c>
       <c r="B104" t="n">
-        <v>2.014885727852855e+30</v>
+        <v>3.872391179248071e+19</v>
       </c>
       <c r="C104" t="n">
-        <v>35.56942749023438</v>
+        <v>53.65625</v>
       </c>
       <c r="D104" t="n">
-        <v>28.85149002075195</v>
+        <v>23.03130912780762</v>
       </c>
       <c r="E104" t="n">
-        <v>-13.57830047607422</v>
+        <v>-31.69322395324707</v>
       </c>
       <c r="F104" t="n">
-        <v>45.97989654541016</v>
+        <v>12.8436393737793</v>
       </c>
       <c r="G104" t="n">
-        <v>69.36461639404297</v>
+        <v>57.17253112792969</v>
       </c>
       <c r="H104" t="n">
-        <v>-68.67732238769531</v>
+        <v>-77.63005828857422</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.177121858894825</v>
+        <v>-4.062703429011223e+26</v>
       </c>
       <c r="B105" t="n">
-        <v>1.007442863926428e+30</v>
+        <v>1.936195589624035e+19</v>
       </c>
       <c r="C105" t="n">
-        <v>35.69554901123047</v>
+        <v>53.63677597045898</v>
       </c>
       <c r="D105" t="n">
-        <v>28.73692321777344</v>
+        <v>23.03987503051758</v>
       </c>
       <c r="E105" t="n">
-        <v>-13.65047168731689</v>
+        <v>-31.67922019958496</v>
       </c>
       <c r="F105" t="n">
-        <v>45.78403091430664</v>
+        <v>12.88994312286377</v>
       </c>
       <c r="G105" t="n">
-        <v>69.42488098144531</v>
+        <v>57.18080520629883</v>
       </c>
       <c r="H105" t="n">
-        <v>-68.47630310058594</v>
+        <v>-77.63711547851562</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.1741464322805405</v>
+        <v>-2.031351714505612e+26</v>
       </c>
       <c r="B106" t="n">
-        <v>5.037214319632138e+29</v>
+        <v>9.680977948120177e+18</v>
       </c>
       <c r="C106" t="n">
-        <v>35.81352996826172</v>
+        <v>53.61808013916016</v>
       </c>
       <c r="D106" t="n">
-        <v>28.62961578369141</v>
+        <v>23.04809761047363</v>
       </c>
       <c r="E106" t="n">
-        <v>-13.71684265136719</v>
+        <v>-31.66561698913574</v>
       </c>
       <c r="F106" t="n">
-        <v>45.59925079345703</v>
+        <v>12.93445014953613</v>
       </c>
       <c r="G106" t="n">
-        <v>69.48606872558594</v>
+        <v>57.18885803222656</v>
       </c>
       <c r="H106" t="n">
-        <v>-68.27890777587891</v>
+        <v>-77.64381408691406</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.1713651448488236</v>
+        <v>-1.015675857252806e+26</v>
       </c>
       <c r="B107" t="n">
-        <v>2.518607159816069e+29</v>
+        <v>4.840488974060088e+18</v>
       </c>
       <c r="C107" t="n">
-        <v>35.92381286621094</v>
+        <v>53.60013580322266</v>
       </c>
       <c r="D107" t="n">
-        <v>28.52882766723633</v>
+        <v>23.05598449707031</v>
       </c>
       <c r="E107" t="n">
-        <v>-13.77761745452881</v>
+        <v>-31.65242385864258</v>
       </c>
       <c r="F107" t="n">
-        <v>45.42508316040039</v>
+        <v>12.97721862792969</v>
       </c>
       <c r="G107" t="n">
-        <v>69.54795837402344</v>
+        <v>57.19672775268555</v>
       </c>
       <c r="H107" t="n">
-        <v>-68.08591461181641</v>
+        <v>-77.65013885498047</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.1687700200080872</v>
+        <v>-5.078379286264029e+25</v>
       </c>
       <c r="B108" t="n">
-        <v>1.259303579908034e+29</v>
+        <v>2.420244487030044e+18</v>
       </c>
       <c r="C108" t="n">
-        <v>36.02671432495117</v>
+        <v>53.58291625976562</v>
       </c>
       <c r="D108" t="n">
-        <v>28.4345817565918</v>
+        <v>23.06355476379395</v>
       </c>
       <c r="E108" t="n">
-        <v>-13.83327484130859</v>
+        <v>-31.6396369934082</v>
       </c>
       <c r="F108" t="n">
-        <v>45.26143264770508</v>
+        <v>13.01831245422363</v>
       </c>
       <c r="G108" t="n">
-        <v>69.61029815673828</v>
+        <v>57.20441055297852</v>
       </c>
       <c r="H108" t="n">
-        <v>-67.89754486083984</v>
+        <v>-77.6561279296875</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.1663516122102738</v>
+        <v>-2.539189643132015e+25</v>
       </c>
       <c r="B109" t="n">
-        <v>6.296517899540172e+28</v>
+        <v>1.210122243515022e+18</v>
       </c>
       <c r="C109" t="n">
-        <v>36.12260818481445</v>
+        <v>53.56641387939453</v>
       </c>
       <c r="D109" t="n">
-        <v>28.34608459472656</v>
+        <v>23.07081604003906</v>
       </c>
       <c r="E109" t="n">
-        <v>-13.88389492034912</v>
+        <v>-31.62723922729492</v>
       </c>
       <c r="F109" t="n">
-        <v>45.10776138305664</v>
+        <v>13.05777835845947</v>
       </c>
       <c r="G109" t="n">
-        <v>69.67296600341797</v>
+        <v>57.21188735961914</v>
       </c>
       <c r="H109" t="n">
-        <v>-67.71459197998047</v>
+        <v>-77.66175842285156</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.1641021502017975</v>
+        <v>-1.269594821566007e+25</v>
       </c>
       <c r="B110" t="n">
-        <v>3.148258949770086e+28</v>
+        <v>6.05061121757511e+17</v>
       </c>
       <c r="C110" t="n">
-        <v>36.2118034362793</v>
+        <v>53.55059051513672</v>
       </c>
       <c r="D110" t="n">
-        <v>28.26360702514648</v>
+        <v>23.07778167724609</v>
       </c>
       <c r="E110" t="n">
-        <v>-13.93001651763916</v>
+        <v>-31.61523818969727</v>
       </c>
       <c r="F110" t="n">
-        <v>44.96411514282227</v>
+        <v>13.09566783905029</v>
       </c>
       <c r="G110" t="n">
-        <v>69.73558044433594</v>
+        <v>57.21917343139648</v>
       </c>
       <c r="H110" t="n">
-        <v>-67.53709411621094</v>
+        <v>-77.66708374023438</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.16201381534338</v>
+        <v>-6.347974107830037e+24</v>
       </c>
       <c r="B111" t="n">
-        <v>1.574129474885043e+28</v>
+        <v>3.025305608787555e+17</v>
       </c>
       <c r="C111" t="n">
-        <v>36.29460906982422</v>
+        <v>53.53544616699219</v>
       </c>
       <c r="D111" t="n">
-        <v>28.18628120422363</v>
+        <v>23.0844612121582</v>
       </c>
       <c r="E111" t="n">
-        <v>-13.97171306610107</v>
+        <v>-31.60362243652344</v>
       </c>
       <c r="F111" t="n">
-        <v>44.82976531982422</v>
+        <v>13.13204097747803</v>
       </c>
       <c r="G111" t="n">
-        <v>69.79807281494141</v>
+        <v>57.22626113891602</v>
       </c>
       <c r="H111" t="n">
-        <v>-67.36566162109375</v>
+        <v>-77.67211151123047</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.1600766408443451</v>
+        <v>-3.173987053915018e+24</v>
       </c>
       <c r="B112" t="n">
-        <v>7.870647374425215e+27</v>
+        <v>1.512652804393778e+17</v>
       </c>
       <c r="C112" t="n">
-        <v>36.37142181396484</v>
+        <v>53.52095413208008</v>
       </c>
       <c r="D112" t="n">
-        <v>28.11436080932617</v>
+        <v>23.09086608886719</v>
       </c>
       <c r="E112" t="n">
-        <v>-14.0095157623291</v>
+        <v>-31.5923957824707</v>
       </c>
       <c r="F112" t="n">
-        <v>44.7046012878418</v>
+        <v>13.16693115234375</v>
       </c>
       <c r="G112" t="n">
-        <v>69.86015319824219</v>
+        <v>57.23316955566406</v>
       </c>
       <c r="H112" t="n">
-        <v>-67.20004272460938</v>
+        <v>-77.67679595947266</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.1582838505506516</v>
+        <v>-1.586993526957509e+24</v>
       </c>
       <c r="B113" t="n">
-        <v>3.935323687212608e+27</v>
+        <v>7.563264021968888e+16</v>
       </c>
       <c r="C113" t="n">
-        <v>36.44250869750977</v>
+        <v>53.50708389282227</v>
       </c>
       <c r="D113" t="n">
-        <v>28.04714965820312</v>
+        <v>23.09700965881348</v>
       </c>
       <c r="E113" t="n">
-        <v>-14.04345893859863</v>
+        <v>-31.58155059814453</v>
       </c>
       <c r="F113" t="n">
-        <v>44.58805465698242</v>
+        <v>13.20040607452393</v>
       </c>
       <c r="G113" t="n">
-        <v>69.92166900634766</v>
+        <v>57.23988723754883</v>
       </c>
       <c r="H113" t="n">
-        <v>-67.04067230224609</v>
+        <v>-77.68116760253906</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.1566323012113571</v>
+        <v>-7.934967634787546e+23</v>
       </c>
       <c r="B114" t="n">
-        <v>1.967661843606304e+27</v>
+        <v>3.781632010984444e+16</v>
       </c>
       <c r="C114" t="n">
-        <v>36.50799560546875</v>
+        <v>53.49383544921875</v>
       </c>
       <c r="D114" t="n">
-        <v>27.98498725891113</v>
+        <v>23.10289764404297</v>
       </c>
       <c r="E114" t="n">
-        <v>-14.07406902313232</v>
+        <v>-31.57107162475586</v>
       </c>
       <c r="F114" t="n">
-        <v>44.48013305664062</v>
+        <v>13.23250293731689</v>
       </c>
       <c r="G114" t="n">
-        <v>69.98222351074219</v>
+        <v>57.24643707275391</v>
       </c>
       <c r="H114" t="n">
-        <v>-66.88768005371094</v>
+        <v>-77.68527984619141</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.1551141899824142</v>
+        <v>-3.967483817393773e+23</v>
       </c>
       <c r="B115" t="n">
-        <v>9.838309218031519e+26</v>
+        <v>1.890816005492222e+16</v>
       </c>
       <c r="C115" t="n">
-        <v>36.56819152832031</v>
+        <v>53.48117065429688</v>
       </c>
       <c r="D115" t="n">
-        <v>27.92741394042969</v>
+        <v>23.10855102539062</v>
       </c>
       <c r="E115" t="n">
-        <v>-14.10165309906006</v>
+        <v>-31.56095886230469</v>
       </c>
       <c r="F115" t="n">
-        <v>44.38043975830078</v>
+        <v>13.26328754425049</v>
       </c>
       <c r="G115" t="n">
-        <v>70.04155731201172</v>
+        <v>57.25278091430664</v>
       </c>
       <c r="H115" t="n">
-        <v>-66.74104309082031</v>
+        <v>-77.68911743164062</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.1537196922302246</v>
+        <v>-1.983741908696886e+23</v>
       </c>
       <c r="B116" t="n">
-        <v>4.91915460901576e+26</v>
+        <v>9454080027461104</v>
       </c>
       <c r="C116" t="n">
-        <v>36.62348556518555</v>
+        <v>53.46907043457031</v>
       </c>
       <c r="D116" t="n">
-        <v>27.87422752380371</v>
+        <v>23.11396598815918</v>
       </c>
       <c r="E116" t="n">
-        <v>-14.12634468078613</v>
+        <v>-31.55121421813965</v>
       </c>
       <c r="F116" t="n">
-        <v>44.28844451904297</v>
+        <v>13.29278945922852</v>
       </c>
       <c r="G116" t="n">
-        <v>70.09962463378906</v>
+        <v>57.25896453857422</v>
       </c>
       <c r="H116" t="n">
-        <v>-66.60075378417969</v>
+        <v>-77.69268798828125</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.1524379566311836</v>
+        <v>-9.918709543484432e+22</v>
       </c>
       <c r="B117" t="n">
-        <v>2.45957730450788e+26</v>
+        <v>4727040013730549</v>
       </c>
       <c r="C117" t="n">
-        <v>36.67430877685547</v>
+        <v>53.45753479003906</v>
       </c>
       <c r="D117" t="n">
-        <v>27.82536125183105</v>
+        <v>23.1191577911377</v>
       </c>
       <c r="E117" t="n">
-        <v>-14.14816570281982</v>
+        <v>-31.54182052612305</v>
       </c>
       <c r="F117" t="n">
-        <v>44.20362091064453</v>
+        <v>13.32107257843018</v>
       </c>
       <c r="G117" t="n">
-        <v>70.15654754638672</v>
+        <v>57.26496887207031</v>
       </c>
       <c r="H117" t="n">
-        <v>-66.46619415283203</v>
+        <v>-77.69597625732422</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.1512492391467095</v>
+        <v>-4.959354771742216e+22</v>
       </c>
       <c r="B118" t="n">
-        <v>1.22978865225394e+26</v>
+        <v>2363520006865272</v>
       </c>
       <c r="C118" t="n">
-        <v>36.72144317626953</v>
+        <v>53.44651412963867</v>
       </c>
       <c r="D118" t="n">
-        <v>27.77992057800293</v>
+        <v>23.12413215637207</v>
       </c>
       <c r="E118" t="n">
-        <v>-14.16719722747803</v>
+        <v>-31.53276824951172</v>
       </c>
       <c r="F118" t="n">
-        <v>44.12492370605469</v>
+        <v>13.34818172454834</v>
       </c>
       <c r="G118" t="n">
-        <v>70.21237945556641</v>
+        <v>57.27079010009766</v>
       </c>
       <c r="H118" t="n">
-        <v>-66.33716583251953</v>
+        <v>-77.69905090332031</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.1501258665323258</v>
+        <v>-2.479677385871108e+22</v>
       </c>
       <c r="B119" t="n">
-        <v>6.1489432612697e+25</v>
+        <v>1181760003432633</v>
       </c>
       <c r="C119" t="n">
-        <v>36.76598739624023</v>
+        <v>53.43600082397461</v>
       </c>
       <c r="D119" t="n">
-        <v>27.73710060119629</v>
+        <v>23.1289005279541</v>
       </c>
       <c r="E119" t="n">
-        <v>-14.18370532989502</v>
+        <v>-31.52405738830566</v>
       </c>
       <c r="F119" t="n">
-        <v>44.0511360168457</v>
+        <v>13.37416362762451</v>
       </c>
       <c r="G119" t="n">
-        <v>70.26744079589844</v>
+        <v>57.27644348144531</v>
       </c>
       <c r="H119" t="n">
-        <v>-66.21230316162109</v>
+        <v>-77.70193481445312</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.1490538442134857</v>
+        <v>-1.239838692935554e+22</v>
       </c>
       <c r="B120" t="n">
-        <v>3.07447163063485e+25</v>
+        <v>590880001716313.4</v>
       </c>
       <c r="C120" t="n">
-        <v>36.80849456787109</v>
+        <v>53.42596435546875</v>
       </c>
       <c r="D120" t="n">
-        <v>27.6963062286377</v>
+        <v>23.13346290588379</v>
       </c>
       <c r="E120" t="n">
-        <v>-14.1978874206543</v>
+        <v>-31.51567077636719</v>
       </c>
       <c r="F120" t="n">
-        <v>43.98112869262695</v>
+        <v>13.39905643463135</v>
       </c>
       <c r="G120" t="n">
-        <v>70.32186889648438</v>
+        <v>57.28190612792969</v>
       </c>
       <c r="H120" t="n">
-        <v>-66.09098815917969</v>
+        <v>-77.70459747314453</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.148022526204586</v>
+        <v>-6.19919346467777e+21</v>
       </c>
       <c r="B121" t="n">
-        <v>1.537235815317425e+25</v>
+        <v>295440000858153.7</v>
       </c>
       <c r="C121" t="n">
-        <v>36.84938812255859</v>
+        <v>53.4163932800293</v>
       </c>
       <c r="D121" t="n">
-        <v>27.6573657989502</v>
+        <v>23.13783836364746</v>
       </c>
       <c r="E121" t="n">
-        <v>-14.21006679534912</v>
+        <v>-31.50759887695312</v>
       </c>
       <c r="F121" t="n">
-        <v>43.91380310058594</v>
+        <v>13.42291069030762</v>
       </c>
       <c r="G121" t="n">
-        <v>70.37576293945312</v>
+        <v>57.28719329833984</v>
       </c>
       <c r="H121" t="n">
-        <v>-65.97235107421875</v>
+        <v>-77.70709228515625</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.1470262262225151</v>
+        <v>-3.099596732338885e+21</v>
       </c>
       <c r="B122" t="n">
-        <v>7.686179076587124e+24</v>
+        <v>147720000429073.8</v>
       </c>
       <c r="C122" t="n">
-        <v>36.88889312744141</v>
+        <v>53.40726089477539</v>
       </c>
       <c r="D122" t="n">
-        <v>27.62003135681152</v>
+        <v>23.14202499389648</v>
       </c>
       <c r="E122" t="n">
-        <v>-14.22069931030273</v>
+        <v>-31.49982833862305</v>
       </c>
       <c r="F122" t="n">
-        <v>43.84786987304688</v>
+        <v>13.44578075408936</v>
       </c>
       <c r="G122" t="n">
-        <v>70.42913055419922</v>
+        <v>57.29233551025391</v>
       </c>
       <c r="H122" t="n">
-        <v>-65.85530853271484</v>
+        <v>-77.70938873291016</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.1460662868618965</v>
+        <v>-1.549798366169443e+21</v>
       </c>
       <c r="B123" t="n">
-        <v>3.843089538293562e+24</v>
+        <v>73860000214533.88</v>
       </c>
       <c r="C123" t="n">
-        <v>36.92695617675781</v>
+        <v>53.39855575561523</v>
       </c>
       <c r="D123" t="n">
-        <v>27.5842456817627</v>
+        <v>23.14604187011719</v>
       </c>
       <c r="E123" t="n">
-        <v>-14.23036575317383</v>
+        <v>-31.49236106872559</v>
       </c>
       <c r="F123" t="n">
-        <v>43.78243637084961</v>
+        <v>13.46769142150879</v>
       </c>
       <c r="G123" t="n">
-        <v>70.48163604736328</v>
+        <v>57.29730606079102</v>
       </c>
       <c r="H123" t="n">
-        <v>-65.73928833007812</v>
+        <v>-77.7115478515625</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.1451399439573288</v>
+        <v>-7.748991830847213e+20</v>
       </c>
       <c r="B124" t="n">
-        <v>1.921544769146781e+24</v>
+        <v>36930000107263.91</v>
       </c>
       <c r="C124" t="n">
-        <v>36.96368789672852</v>
+        <v>53.39022445678711</v>
       </c>
       <c r="D124" t="n">
-        <v>27.54991149902344</v>
+        <v>23.14988708496094</v>
       </c>
       <c r="E124" t="n">
-        <v>-14.23947811126709</v>
+        <v>-31.48517990112305</v>
       </c>
       <c r="F124" t="n">
-        <v>43.71731567382812</v>
+        <v>13.48869609832764</v>
       </c>
       <c r="G124" t="n">
-        <v>70.53297424316406</v>
+        <v>57.30212783813477</v>
       </c>
       <c r="H124" t="n">
-        <v>-65.62421417236328</v>
+        <v>-77.71351623535156</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.1442511937022209</v>
+        <v>-3.874495915423606e+20</v>
       </c>
       <c r="B125" t="n">
-        <v>9.607723845733906e+23</v>
+        <v>18465000053628.93</v>
       </c>
       <c r="C125" t="n">
-        <v>36.99892807006836</v>
+        <v>53.38229751586914</v>
       </c>
       <c r="D125" t="n">
-        <v>27.5170955657959</v>
+        <v>23.15357208251953</v>
       </c>
       <c r="E125" t="n">
-        <v>-14.24806118011475</v>
+        <v>-31.4782657623291</v>
       </c>
       <c r="F125" t="n">
-        <v>43.65336990356445</v>
+        <v>13.50883197784424</v>
       </c>
       <c r="G125" t="n">
-        <v>70.58286285400391</v>
+        <v>57.3067741394043</v>
       </c>
       <c r="H125" t="n">
-        <v>-65.51112365722656</v>
+        <v>-77.71537780761719</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.1433966085314751</v>
+        <v>-1.937247957711803e+20</v>
       </c>
       <c r="B126" t="n">
-        <v>4.803861922866953e+23</v>
+        <v>9232500026811.432</v>
       </c>
       <c r="C126" t="n">
-        <v>37.03281402587891</v>
+        <v>53.37473297119141</v>
       </c>
       <c r="D126" t="n">
-        <v>27.48570251464844</v>
+        <v>23.1570987701416</v>
       </c>
       <c r="E126" t="n">
-        <v>-14.25611686706543</v>
+        <v>-31.47162628173828</v>
       </c>
       <c r="F126" t="n">
-        <v>43.59122085571289</v>
+        <v>13.52812957763672</v>
       </c>
       <c r="G126" t="n">
-        <v>70.63117980957031</v>
+        <v>57.31128692626953</v>
       </c>
       <c r="H126" t="n">
-        <v>-65.40087127685547</v>
+        <v>-77.71709442138672</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.1425739613175392</v>
+        <v>-9.686239788559016e+19</v>
       </c>
       <c r="B127" t="n">
-        <v>2.401930961433476e+23</v>
+        <v>4616250013402.683</v>
       </c>
       <c r="C127" t="n">
-        <v>37.06543350219727</v>
+        <v>53.36750793457031</v>
       </c>
       <c r="D127" t="n">
-        <v>27.45561981201172</v>
+        <v>23.16048431396484</v>
       </c>
       <c r="E127" t="n">
-        <v>-14.26367092132568</v>
+        <v>-31.46524047851562</v>
       </c>
       <c r="F127" t="n">
-        <v>43.53114700317383</v>
+        <v>13.54663467407227</v>
       </c>
       <c r="G127" t="n">
-        <v>70.67782592773438</v>
+        <v>57.31564712524414</v>
       </c>
       <c r="H127" t="n">
-        <v>-65.29390716552734</v>
+        <v>-77.71870422363281</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.1417798718810082</v>
+        <v>-4.843119894279508e+19</v>
       </c>
       <c r="B128" t="n">
-        <v>1.200965480716738e+23</v>
+        <v>2308125006698.306</v>
       </c>
       <c r="C128" t="n">
-        <v>37.09692001342773</v>
+        <v>53.36061096191406</v>
       </c>
       <c r="D128" t="n">
-        <v>27.4267520904541</v>
+        <v>23.16372680664062</v>
       </c>
       <c r="E128" t="n">
-        <v>-14.27082633972168</v>
+        <v>-31.45910263061523</v>
       </c>
       <c r="F128" t="n">
-        <v>43.47311782836914</v>
+        <v>13.56437206268311</v>
       </c>
       <c r="G128" t="n">
-        <v>70.72282409667969</v>
+        <v>57.31985473632812</v>
       </c>
       <c r="H128" t="n">
-        <v>-65.19034576416016</v>
+        <v>-77.72019195556641</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.1410083064436913</v>
+        <v>-2.421559947139754e+19</v>
       </c>
       <c r="B129" t="n">
-        <v>6.004827403583691e+22</v>
+        <v>1154062503346.115</v>
       </c>
       <c r="C129" t="n">
-        <v>37.12751388549805</v>
+        <v>53.35402679443359</v>
       </c>
       <c r="D129" t="n">
-        <v>27.39885711669922</v>
+        <v>23.16683197021484</v>
       </c>
       <c r="E129" t="n">
-        <v>-14.27769756317139</v>
+        <v>-31.45319938659668</v>
       </c>
       <c r="F129" t="n">
-        <v>43.41686248779297</v>
+        <v>13.58137989044189</v>
       </c>
       <c r="G129" t="n">
-        <v>70.76615905761719</v>
+        <v>57.32393264770508</v>
       </c>
       <c r="H129" t="n">
-        <v>-65.08993530273438</v>
+        <v>-77.72156524658203</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.1402577170729637</v>
+        <v>-1.210779973569877e+19</v>
       </c>
       <c r="B130" t="n">
-        <v>3.002413701791846e+22</v>
+        <v>577031251670.0187</v>
       </c>
       <c r="C130" t="n">
-        <v>37.15727615356445</v>
+        <v>53.34774398803711</v>
       </c>
       <c r="D130" t="n">
-        <v>27.37187004089355</v>
+        <v>23.16980934143066</v>
       </c>
       <c r="E130" t="n">
-        <v>-14.28437900543213</v>
+        <v>-31.44752311706543</v>
       </c>
       <c r="F130" t="n">
-        <v>43.36223983764648</v>
+        <v>13.59768295288086</v>
       </c>
       <c r="G130" t="n">
-        <v>70.807861328125</v>
+        <v>57.32787322998047</v>
       </c>
       <c r="H130" t="n">
-        <v>-64.99266052246094</v>
+        <v>-77.72285461425781</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.1395281037688255</v>
+        <v>-6.053899867849385e+18</v>
       </c>
       <c r="B131" t="n">
-        <v>1.501206850895923e+22</v>
+        <v>288515625831.9685</v>
       </c>
       <c r="C131" t="n">
-        <v>37.18620681762695</v>
+        <v>53.34175491333008</v>
       </c>
       <c r="D131" t="n">
-        <v>27.34572601318359</v>
+        <v>23.17266273498535</v>
       </c>
       <c r="E131" t="n">
-        <v>-14.29093647003174</v>
+        <v>-31.44207000732422</v>
       </c>
       <c r="F131" t="n">
-        <v>43.30915451049805</v>
+        <v>13.61331558227539</v>
       </c>
       <c r="G131" t="n">
-        <v>70.84788513183594</v>
+        <v>57.33168792724609</v>
       </c>
       <c r="H131" t="n">
-        <v>-64.89846801757812</v>
+        <v>-77.72406768798828</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.1388159915804863</v>
+        <v>-3.026949933924692e+18</v>
       </c>
       <c r="B132" t="n">
-        <v>7.506034254479614e+21</v>
+        <v>144257812912.9418</v>
       </c>
       <c r="C132" t="n">
-        <v>37.21444320678711</v>
+        <v>53.33602905273438</v>
       </c>
       <c r="D132" t="n">
-        <v>27.3203067779541</v>
+        <v>23.1753978729248</v>
       </c>
       <c r="E132" t="n">
-        <v>-14.29745769500732</v>
+        <v>-31.43682861328125</v>
       </c>
       <c r="F132" t="n">
-        <v>43.25739669799805</v>
+        <v>13.62830257415771</v>
       </c>
       <c r="G132" t="n">
-        <v>70.88621520996094</v>
+        <v>57.33535766601562</v>
       </c>
       <c r="H132" t="n">
-        <v>-64.80734252929688</v>
+        <v>-77.72516632080078</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.1381212067604065</v>
+        <v>-1.513474966962346e+18</v>
       </c>
       <c r="B133" t="n">
-        <v>3.753017127239807e+21</v>
+        <v>72128906453.4269</v>
       </c>
       <c r="C133" t="n">
-        <v>37.24199295043945</v>
+        <v>53.3305549621582</v>
       </c>
       <c r="D133" t="n">
-        <v>27.29557609558105</v>
+        <v>23.17801666259766</v>
       </c>
       <c r="E133" t="n">
-        <v>-14.30401420593262</v>
+        <v>-31.43179321289062</v>
       </c>
       <c r="F133" t="n">
-        <v>43.20690155029297</v>
+        <v>13.64267635345459</v>
       </c>
       <c r="G133" t="n">
-        <v>70.92282867431641</v>
+        <v>57.33891677856445</v>
       </c>
       <c r="H133" t="n">
-        <v>-64.71931457519531</v>
+        <v>-77.72621917724609</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.1374359306693077</v>
+        <v>-7.567374834811731e+17</v>
       </c>
       <c r="B134" t="n">
-        <v>1.876508563619903e+21</v>
+        <v>36064453223.66795</v>
       </c>
       <c r="C134" t="n">
-        <v>37.2691650390625</v>
+        <v>53.32534027099609</v>
       </c>
       <c r="D134" t="n">
-        <v>27.2712516784668</v>
+        <v>23.1805305480957</v>
       </c>
       <c r="E134" t="n">
-        <v>-14.31069660186768</v>
+        <v>-31.42695426940918</v>
       </c>
       <c r="F134" t="n">
-        <v>43.15734481811523</v>
+        <v>13.65646266937256</v>
       </c>
       <c r="G134" t="n">
-        <v>70.95789337158203</v>
+        <v>57.34234237670898</v>
       </c>
       <c r="H134" t="n">
-        <v>-64.63400268554688</v>
+        <v>-77.72716522216797</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.136764033138752</v>
+        <v>-3.783687417405866e+17</v>
       </c>
       <c r="B135" t="n">
-        <v>9.382542818099517e+20</v>
+        <v>18032226653.09964</v>
       </c>
       <c r="C135" t="n">
-        <v>37.29580688476562</v>
+        <v>53.32035827636719</v>
       </c>
       <c r="D135" t="n">
-        <v>27.24747085571289</v>
+        <v>23.18293762207031</v>
       </c>
       <c r="E135" t="n">
-        <v>-14.31750011444092</v>
+        <v>-31.42229843139648</v>
       </c>
       <c r="F135" t="n">
-        <v>43.10886764526367</v>
+        <v>13.66967010498047</v>
       </c>
       <c r="G135" t="n">
-        <v>70.99136352539062</v>
+        <v>57.34565353393555</v>
       </c>
       <c r="H135" t="n">
-        <v>-64.55152130126953</v>
+        <v>-77.72808837890625</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.1361125430464745</v>
+        <v>-1.891843708702931e+17</v>
       </c>
       <c r="B136" t="n">
-        <v>4.691271409049759e+20</v>
+        <v>9016112858.120192</v>
       </c>
       <c r="C136" t="n">
-        <v>37.32164001464844</v>
+        <v>53.31558990478516</v>
       </c>
       <c r="D136" t="n">
-        <v>27.22445487976074</v>
+        <v>23.18524551391602</v>
       </c>
       <c r="E136" t="n">
-        <v>-14.32439136505127</v>
+        <v>-31.4178352355957</v>
       </c>
       <c r="F136" t="n">
-        <v>43.06169509887695</v>
+        <v>13.68234252929688</v>
       </c>
       <c r="G136" t="n">
-        <v>71.02313995361328</v>
+        <v>57.34885787963867</v>
       </c>
       <c r="H136" t="n">
-        <v>-64.4720458984375</v>
+        <v>-77.72891998291016</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.7791719245097245</v>
+        <v>-9.459218543515306e+16</v>
       </c>
       <c r="B137" t="n">
-        <v>2.345635704524883e+20</v>
+        <v>4508061826.018918</v>
       </c>
       <c r="C137" t="n">
-        <v>37.34674835205078</v>
+        <v>53.31105041503906</v>
       </c>
       <c r="D137" t="n">
-        <v>27.2021427154541</v>
+        <v>23.18745613098145</v>
       </c>
       <c r="E137" t="n">
-        <v>-14.33139133453369</v>
+        <v>-31.41353607177734</v>
       </c>
       <c r="F137" t="n">
-        <v>43.01573944091797</v>
+        <v>13.69449329376221</v>
       </c>
       <c r="G137" t="n">
-        <v>71.05335235595703</v>
+        <v>57.35193252563477</v>
       </c>
       <c r="H137" t="n">
-        <v>-64.39539337158203</v>
+        <v>-77.72969055175781</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.9438079701261025</v>
+        <v>-4.729609271739047e+16</v>
       </c>
       <c r="B138" t="n">
-        <v>1.172817852262317e+20</v>
+        <v>2253968785.119463</v>
       </c>
       <c r="C138" t="n">
-        <v>37.37114334106445</v>
+        <v>53.30669784545898</v>
       </c>
       <c r="D138" t="n">
-        <v>27.1805534362793</v>
+        <v>23.18957710266113</v>
       </c>
       <c r="E138" t="n">
-        <v>-14.33853530883789</v>
+        <v>-31.4094066619873</v>
       </c>
       <c r="F138" t="n">
-        <v>42.97099685668945</v>
+        <v>13.70615005493164</v>
       </c>
       <c r="G138" t="n">
-        <v>71.08196258544922</v>
+        <v>57.35491561889648</v>
       </c>
       <c r="H138" t="n">
-        <v>-64.32158660888672</v>
+        <v>-77.73040008544922</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.9857649323993111</v>
+        <v>-2.364804636399056e+16</v>
       </c>
       <c r="B139" t="n">
-        <v>5.864089261353646e+19</v>
+        <v>1127699949.942443</v>
       </c>
       <c r="C139" t="n">
-        <v>37.39492416381836</v>
+        <v>53.30254745483398</v>
       </c>
       <c r="D139" t="n">
-        <v>27.15951538085938</v>
+        <v>23.19161033630371</v>
       </c>
       <c r="E139" t="n">
-        <v>-14.34577560424805</v>
+        <v>-31.40544128417969</v>
       </c>
       <c r="F139" t="n">
-        <v>42.92733764648438</v>
+        <v>13.71731853485107</v>
       </c>
       <c r="G139" t="n">
-        <v>71.10919189453125</v>
+        <v>57.35778045654297</v>
       </c>
       <c r="H139" t="n">
-        <v>-64.25028991699219</v>
+        <v>-77.7310791015625</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.9964096151069587</v>
+        <v>-1.182402303133873e+16</v>
       </c>
       <c r="B140" t="n">
-        <v>2.932044629257066e+19</v>
+        <v>555605485.9186618</v>
       </c>
       <c r="C140" t="n">
-        <v>37.41820526123047</v>
+        <v>53.29857635498047</v>
       </c>
       <c r="D140" t="n">
-        <v>27.13884544372559</v>
+        <v>23.19355392456055</v>
       </c>
       <c r="E140" t="n">
-        <v>-14.35300540924072</v>
+        <v>-31.40163421630859</v>
       </c>
       <c r="F140" t="n">
-        <v>42.88462448120117</v>
+        <v>13.72804260253906</v>
       </c>
       <c r="G140" t="n">
-        <v>71.13512420654297</v>
+        <v>57.36055755615234</v>
       </c>
       <c r="H140" t="n">
-        <v>-64.18128204345703</v>
+        <v>-77.73170471191406</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.9990983243986018</v>
+        <v>-5912015800595784</v>
       </c>
       <c r="B141" t="n">
-        <v>1.466022362517197e+19</v>
+        <v>372828668.603739</v>
       </c>
       <c r="C141" t="n">
-        <v>37.44100570678711</v>
+        <v>53.29478454589844</v>
       </c>
       <c r="D141" t="n">
-        <v>27.1185131072998</v>
+        <v>23.1954231262207</v>
       </c>
       <c r="E141" t="n">
-        <v>-14.36022758483887</v>
+        <v>-31.39797592163086</v>
       </c>
       <c r="F141" t="n">
-        <v>42.84282684326172</v>
+        <v>13.73832035064697</v>
       </c>
       <c r="G141" t="n">
-        <v>71.15984344482422</v>
+        <v>57.36322402954102</v>
       </c>
       <c r="H141" t="n">
-        <v>-64.11444854736328</v>
+        <v>-77.73229217529297</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.9997745158971306</v>
+        <v>-2955886067252971</v>
       </c>
       <c r="B142" t="n">
-        <v>7.330095671284199e+18</v>
+        <v>-909237422.7210993</v>
       </c>
       <c r="C142" t="n">
-        <v>37.46336364746094</v>
+        <v>53.29116821289062</v>
       </c>
       <c r="D142" t="n">
-        <v>27.09848022460938</v>
+        <v>23.19721031188965</v>
       </c>
       <c r="E142" t="n">
-        <v>-14.36745738983154</v>
+        <v>-31.39445495605469</v>
       </c>
       <c r="F142" t="n">
-        <v>42.80189514160156</v>
+        <v>13.74817657470703</v>
       </c>
       <c r="G142" t="n">
-        <v>71.18340301513672</v>
+        <v>57.36580657958984</v>
       </c>
       <c r="H142" t="n">
-        <v>-64.04976654052734</v>
+        <v>-77.73284149169922</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.9999438480552915</v>
+        <v>-1481406087123930</v>
       </c>
       <c r="B143" t="n">
-        <v>3.665591508527182e+18</v>
+        <v>12182521960.07718</v>
       </c>
       <c r="C143" t="n">
-        <v>37.48530197143555</v>
+        <v>53.2877082824707</v>
       </c>
       <c r="D143" t="n">
-        <v>27.07872772216797</v>
+        <v>23.19892311096191</v>
       </c>
       <c r="E143" t="n">
-        <v>-14.37469291687012</v>
+        <v>-31.39107513427734</v>
       </c>
       <c r="F143" t="n">
-        <v>42.76177597045898</v>
+        <v>13.75762557983398</v>
       </c>
       <c r="G143" t="n">
-        <v>71.20583343505859</v>
+        <v>57.3682861328125</v>
       </c>
       <c r="H143" t="n">
-        <v>-63.98713684082031</v>
+        <v>-77.73332977294922</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.9999860741596448</v>
+        <v>-642294854457976.4</v>
       </c>
       <c r="B144" t="n">
-        <v>1.814496399069132e+18</v>
+        <v>-139711230999.8105</v>
       </c>
       <c r="C144" t="n">
-        <v>37.50685501098633</v>
+        <v>53.28440475463867</v>
       </c>
       <c r="D144" t="n">
-        <v>27.05922698974609</v>
+        <v>23.20056915283203</v>
       </c>
       <c r="E144" t="n">
-        <v>-14.38192844390869</v>
+        <v>-31.38783073425293</v>
       </c>
       <c r="F144" t="n">
-        <v>42.72246551513672</v>
+        <v>13.76668930053711</v>
       </c>
       <c r="G144" t="n">
-        <v>71.22722625732422</v>
+        <v>57.37067031860352</v>
       </c>
       <c r="H144" t="n">
-        <v>-63.9265251159668</v>
+        <v>-77.73383331298828</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.9999965603968698</v>
+        <v>-3116820247769593</v>
       </c>
       <c r="B145" t="n">
-        <v>1.522763214265574e+18</v>
+        <v>1612876990229.844</v>
       </c>
       <c r="C145" t="n">
-        <v>37.52804946899414</v>
+        <v>53.28124618530273</v>
       </c>
       <c r="D145" t="n">
-        <v>27.03997421264648</v>
+        <v>23.20213890075684</v>
       </c>
       <c r="E145" t="n">
-        <v>-14.38916015625</v>
+        <v>-31.38471603393555</v>
       </c>
       <c r="F145" t="n">
-        <v>42.68391418457031</v>
+        <v>13.77538299560547</v>
       </c>
       <c r="G145" t="n">
-        <v>71.24758148193359</v>
+        <v>57.37297439575195</v>
       </c>
       <c r="H145" t="n">
-        <v>-63.86786270141602</v>
+        <v>-77.73426055908203</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.9999991538478644</v>
+        <v>7.784331531536347e+16</v>
       </c>
       <c r="B146" t="n">
-        <v>-1.992819843330536e+19</v>
+        <v>-18620029265420.61</v>
       </c>
       <c r="C146" t="n">
-        <v>37.54888534545898</v>
+        <v>53.27822113037109</v>
       </c>
       <c r="D146" t="n">
-        <v>27.02097129821777</v>
+        <v>23.20364952087402</v>
       </c>
       <c r="E146" t="n">
-        <v>-14.3963794708252</v>
+        <v>-31.3817195892334</v>
       </c>
       <c r="F146" t="n">
-        <v>42.64612579345703</v>
+        <v>13.78371810913086</v>
       </c>
       <c r="G146" t="n">
-        <v>71.26698303222656</v>
+        <v>57.37519073486328</v>
       </c>
       <c r="H146" t="n">
-        <v>-63.81111907958984</v>
+        <v>-77.73466491699219</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.9999997926701936</v>
+        <v>-2.215663131540989e+18</v>
       </c>
       <c r="B147" t="n">
-        <v>6.850282745237698e+20</v>
+        <v>215024347680664.6</v>
       </c>
       <c r="C147" t="n">
-        <v>37.56940078735352</v>
+        <v>53.27533721923828</v>
       </c>
       <c r="D147" t="n">
-        <v>27.00218200683594</v>
+        <v>23.2050952911377</v>
       </c>
       <c r="E147" t="n">
-        <v>-14.40358448028564</v>
+        <v>-31.37884140014648</v>
       </c>
       <c r="F147" t="n">
-        <v>42.60905456542969</v>
+        <v>13.79171657562256</v>
       </c>
       <c r="G147" t="n">
-        <v>71.28546142578125</v>
+        <v>57.37733459472656</v>
       </c>
       <c r="H147" t="n">
-        <v>-63.75620269775391</v>
+        <v>-77.73505401611328</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.9999999493980251</v>
+        <v>6.289527975616887e+19</v>
       </c>
       <c r="B148" t="n">
-        <v>-2.298824196000558e+22</v>
+        <v>-2483776925832707</v>
       </c>
       <c r="C148" t="n">
-        <v>37.58960723876953</v>
+        <v>53.2725715637207</v>
       </c>
       <c r="D148" t="n">
-        <v>26.98360824584961</v>
+        <v>23.20648193359375</v>
       </c>
       <c r="E148" t="n">
-        <v>-14.41076755523682</v>
+        <v>-31.37607765197754</v>
       </c>
       <c r="F148" t="n">
-        <v>42.57266998291016</v>
+        <v>13.79938411712646</v>
       </c>
       <c r="G148" t="n">
-        <v>71.30308532714844</v>
+        <v>57.3793830871582</v>
       </c>
       <c r="H148" t="n">
-        <v>-63.70307540893555</v>
+        <v>-77.73540496826172</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.9999999876977695</v>
+        <v>-1.785063983677619e+21</v>
       </c>
       <c r="B149" t="n">
-        <v>7.712197316756311e+23</v>
+        <v>2.86979368023509e+16</v>
       </c>
       <c r="C149" t="n">
-        <v>37.60951995849609</v>
+        <v>53.26993179321289</v>
       </c>
       <c r="D149" t="n">
-        <v>26.96524047851562</v>
+        <v>23.20780754089355</v>
       </c>
       <c r="E149" t="n">
-        <v>-14.41792011260986</v>
+        <v>-31.37342643737793</v>
       </c>
       <c r="F149" t="n">
-        <v>42.53695678710938</v>
+        <v>13.80673503875732</v>
       </c>
       <c r="G149" t="n">
-        <v>71.31986999511719</v>
+        <v>57.3813591003418</v>
       </c>
       <c r="H149" t="n">
-        <v>-63.65165328979492</v>
+        <v>-77.7357177734375</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.9999999970206028</v>
+        <v>5.065187249192605e+22</v>
       </c>
       <c r="B150" t="n">
-        <v>-2.585702395808159e+25</v>
+        <v>-3.316631153983167e+17</v>
       </c>
       <c r="C150" t="n">
-        <v>37.629150390625</v>
+        <v>53.26741409301758</v>
       </c>
       <c r="D150" t="n">
-        <v>26.94706726074219</v>
+        <v>23.20907974243164</v>
       </c>
       <c r="E150" t="n">
-        <v>-14.42503929138184</v>
+        <v>-31.37087631225586</v>
       </c>
       <c r="F150" t="n">
-        <v>42.50190734863281</v>
+        <v>13.81379127502441</v>
       </c>
       <c r="G150" t="n">
-        <v>71.33588409423828</v>
+        <v>57.38327407836914</v>
       </c>
       <c r="H150" t="n">
-        <v>-63.60188674926758</v>
+        <v>-77.73606109619141</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.9999999992811833</v>
+        <v>-1.436970872871275e+24</v>
       </c>
       <c r="B151" t="n">
-        <v>8.663912130375857e+26</v>
+        <v>3.833960794986465e+18</v>
       </c>
       <c r="C151" t="n">
-        <v>37.64850616455078</v>
+        <v>53.26499176025391</v>
       </c>
       <c r="D151" t="n">
-        <v>26.92910385131836</v>
+        <v>23.21030044555664</v>
       </c>
       <c r="E151" t="n">
-        <v>-14.43211364746094</v>
+        <v>-31.36843109130859</v>
       </c>
       <c r="F151" t="n">
-        <v>42.46748733520508</v>
+        <v>13.82055282592773</v>
       </c>
       <c r="G151" t="n">
-        <v>71.35115051269531</v>
+        <v>57.38509750366211</v>
       </c>
       <c r="H151" t="n">
-        <v>-63.55374908447266</v>
+        <v>-77.73631286621094</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.9999999998272292</v>
+        <v>4.075819791902616e+25</v>
       </c>
       <c r="B152" t="n">
-        <v>-2.901277637021132e+28</v>
+        <v>-4.433000504236557e+19</v>
       </c>
       <c r="C152" t="n">
-        <v>37.66758728027344</v>
+        <v>53.2626838684082</v>
       </c>
       <c r="D152" t="n">
-        <v>26.91134262084961</v>
+        <v>23.21146583557129</v>
       </c>
       <c r="E152" t="n">
-        <v>-14.4391393661499</v>
+        <v>-31.36607933044434</v>
       </c>
       <c r="F152" t="n">
-        <v>42.43370056152344</v>
+        <v>13.82704162597656</v>
       </c>
       <c r="G152" t="n">
-        <v>71.36573028564453</v>
+        <v>57.38686370849609</v>
       </c>
       <c r="H152" t="n">
-        <v>-63.50715637207031</v>
+        <v>-77.736572265625</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.9999999999586285</v>
+        <v>-1.155847015386182e+27</v>
       </c>
       <c r="B153" t="n">
-        <v>9.709765647132321e+29</v>
+        <v>5.126764896994428e+20</v>
       </c>
       <c r="C153" t="n">
-        <v>37.6864128112793</v>
+        <v>53.26047515869141</v>
       </c>
       <c r="D153" t="n">
-        <v>26.89378356933594</v>
+        <v>23.21258735656738</v>
       </c>
       <c r="E153" t="n">
-        <v>-14.44610500335693</v>
+        <v>-31.36381912231445</v>
       </c>
       <c r="F153" t="n">
-        <v>42.40053176879883</v>
+        <v>13.83326148986816</v>
       </c>
       <c r="G153" t="n">
-        <v>71.379638671875</v>
+        <v>57.38855743408203</v>
       </c>
       <c r="H153" t="n">
-        <v>-63.46207427978516</v>
+        <v>-77.73684692382812</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.9999999999901298</v>
+        <v>-5.77923507693091e+26</v>
       </c>
       <c r="B154" t="n">
-        <v>4.854882823566161e+29</v>
+        <v>2.563382448497214e+20</v>
       </c>
       <c r="C154" t="n">
-        <v>37.70495986938477</v>
+        <v>53.25836563110352</v>
       </c>
       <c r="D154" t="n">
-        <v>26.87642669677734</v>
+        <v>23.21365737915039</v>
       </c>
       <c r="E154" t="n">
-        <v>-14.45300579071045</v>
+        <v>-31.36165618896484</v>
       </c>
       <c r="F154" t="n">
-        <v>42.36795043945312</v>
+        <v>13.8392219543457</v>
       </c>
       <c r="G154" t="n">
-        <v>71.39293670654297</v>
+        <v>57.39019393920898</v>
       </c>
       <c r="H154" t="n">
-        <v>-63.41845703125</v>
+        <v>-77.737060546875</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.1259838749468327</v>
+        <v>-2.889617538465455e+26</v>
       </c>
       <c r="B155" t="n">
-        <v>2.42744141178308e+29</v>
+        <v>1.281691224248607e+20</v>
       </c>
       <c r="C155" t="n">
-        <v>37.72325897216797</v>
+        <v>53.25634765625</v>
       </c>
       <c r="D155" t="n">
-        <v>26.85928726196289</v>
+        <v>23.21468734741211</v>
       </c>
       <c r="E155" t="n">
-        <v>-14.4598331451416</v>
+        <v>-31.35956764221191</v>
       </c>
       <c r="F155" t="n">
-        <v>42.33597183227539</v>
+        <v>13.84495067596436</v>
       </c>
       <c r="G155" t="n">
-        <v>71.4056396484375</v>
+        <v>57.39176940917969</v>
       </c>
       <c r="H155" t="n">
-        <v>-63.37625122070312</v>
+        <v>-77.7373046875</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.1255290196835995</v>
+        <v>-1.444808769232727e+26</v>
       </c>
       <c r="B156" t="n">
-        <v>1.21372070589154e+29</v>
+        <v>6.408456121243034e+19</v>
       </c>
       <c r="C156" t="n">
-        <v>37.74129486083984</v>
+        <v>53.25441741943359</v>
       </c>
       <c r="D156" t="n">
-        <v>26.84235954284668</v>
+        <v>23.21567153930664</v>
       </c>
       <c r="E156" t="n">
-        <v>-14.46658039093018</v>
+        <v>-31.35757637023926</v>
       </c>
       <c r="F156" t="n">
-        <v>42.30458831787109</v>
+        <v>13.85043334960938</v>
       </c>
       <c r="G156" t="n">
-        <v>71.41777801513672</v>
+        <v>57.39326858520508</v>
       </c>
       <c r="H156" t="n">
-        <v>-63.33541107177734</v>
+        <v>-77.73750305175781</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.1250807984173298</v>
+        <v>-7.224043846163637e+25</v>
       </c>
       <c r="B157" t="n">
-        <v>6.068603529457701e+28</v>
+        <v>3.204228060621517e+19</v>
       </c>
       <c r="C157" t="n">
-        <v>37.75906753540039</v>
+        <v>53.25257110595703</v>
       </c>
       <c r="D157" t="n">
-        <v>26.82565498352051</v>
+        <v>23.21661376953125</v>
       </c>
       <c r="E157" t="n">
-        <v>-14.47323894500732</v>
+        <v>-31.35565567016602</v>
       </c>
       <c r="F157" t="n">
-        <v>42.27376937866211</v>
+        <v>13.85570049285889</v>
       </c>
       <c r="G157" t="n">
-        <v>71.42940521240234</v>
+        <v>57.39472961425781</v>
       </c>
       <c r="H157" t="n">
-        <v>-63.29586791992188</v>
+        <v>-77.73768615722656</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.1246390216052532</v>
+        <v>-3.612021923081819e+25</v>
       </c>
       <c r="B158" t="n">
-        <v>3.03430176472885e+28</v>
+        <v>1.602114030310759e+19</v>
       </c>
       <c r="C158" t="n">
-        <v>37.77658462524414</v>
+        <v>53.25080108642578</v>
       </c>
       <c r="D158" t="n">
-        <v>26.80917358398438</v>
+        <v>23.2175178527832</v>
       </c>
       <c r="E158" t="n">
-        <v>-14.47980499267578</v>
+        <v>-31.35380935668945</v>
       </c>
       <c r="F158" t="n">
-        <v>42.2435188293457</v>
+        <v>13.86074829101562</v>
       </c>
       <c r="G158" t="n">
-        <v>71.44052886962891</v>
+        <v>57.39611434936523</v>
       </c>
       <c r="H158" t="n">
-        <v>-63.25759887695312</v>
+        <v>-77.73787689208984</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.1242039893567562</v>
+        <v>-1.806010961540909e+25</v>
       </c>
       <c r="B159" t="n">
-        <v>1.517150882364425e+28</v>
+        <v>8.010570151553793e+18</v>
       </c>
       <c r="C159" t="n">
-        <v>37.7938346862793</v>
+        <v>53.24911499023438</v>
       </c>
       <c r="D159" t="n">
-        <v>26.79292488098145</v>
+        <v>23.21838188171387</v>
       </c>
       <c r="E159" t="n">
-        <v>-14.48627090454102</v>
+        <v>-31.3520393371582</v>
       </c>
       <c r="F159" t="n">
-        <v>42.21384048461914</v>
+        <v>13.86557960510254</v>
       </c>
       <c r="G159" t="n">
-        <v>71.45120239257812</v>
+        <v>57.39745712280273</v>
       </c>
       <c r="H159" t="n">
-        <v>-63.22056579589844</v>
+        <v>-77.73804473876953</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.1237756779789925</v>
+        <v>-9.030054807704546e+24</v>
       </c>
       <c r="B160" t="n">
-        <v>7.585754411822126e+27</v>
+        <v>4.005285075776897e+18</v>
       </c>
       <c r="C160" t="n">
-        <v>37.81081771850586</v>
+        <v>53.24748992919922</v>
       </c>
       <c r="D160" t="n">
-        <v>26.77691650390625</v>
+        <v>23.21921348571777</v>
       </c>
       <c r="E160" t="n">
-        <v>-14.49263381958008</v>
+        <v>-31.35034370422363</v>
       </c>
       <c r="F160" t="n">
-        <v>42.18473052978516</v>
+        <v>13.87022304534912</v>
       </c>
       <c r="G160" t="n">
-        <v>71.46142578125</v>
+        <v>57.39874649047852</v>
       </c>
       <c r="H160" t="n">
-        <v>-63.18471908569336</v>
+        <v>-77.73816680908203</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.1233540163934231</v>
+        <v>-4.515027403852273e+24</v>
       </c>
       <c r="B161" t="n">
-        <v>3.792877205911063e+27</v>
+        <v>2.002642537888448e+18</v>
       </c>
       <c r="C161" t="n">
-        <v>37.82753753662109</v>
+        <v>53.24594116210938</v>
       </c>
       <c r="D161" t="n">
-        <v>26.76114845275879</v>
+        <v>23.22000885009766</v>
       </c>
       <c r="E161" t="n">
-        <v>-14.49888801574707</v>
+        <v>-31.34870910644531</v>
       </c>
       <c r="F161" t="n">
-        <v>42.15616989135742</v>
+        <v>13.87467384338379</v>
       </c>
       <c r="G161" t="n">
-        <v>71.47124481201172</v>
+        <v>57.39999008178711</v>
       </c>
       <c r="H161" t="n">
-        <v>-63.1500244140625</v>
+        <v>-77.73834228515625</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.122939367890358</v>
+        <v>-2.257513701926137e+24</v>
       </c>
       <c r="B162" t="n">
-        <v>1.896438602955531e+27</v>
+        <v>1.001321268944224e+18</v>
       </c>
       <c r="C162" t="n">
-        <v>37.84397888183594</v>
+        <v>53.24446105957031</v>
       </c>
       <c r="D162" t="n">
-        <v>26.74563598632812</v>
+        <v>23.22076988220215</v>
       </c>
       <c r="E162" t="n">
-        <v>-14.50502681732178</v>
+        <v>-31.34714126586914</v>
       </c>
       <c r="F162" t="n">
-        <v>42.1281623840332</v>
+        <v>13.87894439697266</v>
       </c>
       <c r="G162" t="n">
-        <v>71.48067474365234</v>
+        <v>57.40116500854492</v>
       </c>
       <c r="H162" t="n">
-        <v>-63.11645126342773</v>
+        <v>-77.73847198486328</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.1225313691794872</v>
+        <v>-1.128756850963068e+24</v>
       </c>
       <c r="B163" t="n">
-        <v>9.482193014777657e+26</v>
+        <v>5.006606344721121e+17</v>
       </c>
       <c r="C163" t="n">
-        <v>37.86015701293945</v>
+        <v>53.24304580688477</v>
       </c>
       <c r="D163" t="n">
-        <v>26.73037719726562</v>
+        <v>23.22149848937988</v>
       </c>
       <c r="E163" t="n">
-        <v>-14.51104831695557</v>
+        <v>-31.34564971923828</v>
       </c>
       <c r="F163" t="n">
-        <v>42.1007080078125</v>
+        <v>13.88303852081299</v>
       </c>
       <c r="G163" t="n">
-        <v>71.48972320556641</v>
+        <v>57.40231704711914</v>
       </c>
       <c r="H163" t="n">
-        <v>-63.08391952514648</v>
+        <v>-77.73860168457031</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.122130770534277</v>
+        <v>-5.643784254815342e+23</v>
       </c>
       <c r="B164" t="n">
-        <v>4.741096507388829e+26</v>
+        <v>2.50330317236056e+17</v>
       </c>
       <c r="C164" t="n">
-        <v>37.87604141235352</v>
+        <v>53.24169158935547</v>
       </c>
       <c r="D164" t="n">
-        <v>26.71538162231445</v>
+        <v>23.22219657897949</v>
       </c>
       <c r="E164" t="n">
-        <v>-14.51694774627686</v>
+        <v>-31.34420204162598</v>
       </c>
       <c r="F164" t="n">
-        <v>42.07379531860352</v>
+        <v>13.886962890625</v>
       </c>
       <c r="G164" t="n">
-        <v>71.49842834472656</v>
+        <v>57.40340805053711</v>
       </c>
       <c r="H164" t="n">
-        <v>-63.05244064331055</v>
+        <v>-77.73871612548828</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.121737003326416</v>
+        <v>-2.821892127407671e+23</v>
       </c>
       <c r="B165" t="n">
-        <v>2.370548253694414e+26</v>
+        <v>1.25165158618028e+17</v>
       </c>
       <c r="C165" t="n">
-        <v>37.89165496826172</v>
+        <v>53.24038696289062</v>
       </c>
       <c r="D165" t="n">
-        <v>26.70065689086914</v>
+        <v>23.22286987304688</v>
       </c>
       <c r="E165" t="n">
-        <v>-14.52272129058838</v>
+        <v>-31.34281921386719</v>
       </c>
       <c r="F165" t="n">
-        <v>42.04742431640625</v>
+        <v>13.89072608947754</v>
       </c>
       <c r="G165" t="n">
-        <v>71.50682830810547</v>
+        <v>57.40447616577148</v>
       </c>
       <c r="H165" t="n">
-        <v>-63.02196502685547</v>
+        <v>-77.73883819580078</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.1213502570986748</v>
+        <v>-1.410946063703835e+23</v>
       </c>
       <c r="B166" t="n">
-        <v>1.185274126847207e+26</v>
+        <v>6.258257930901401e+16</v>
       </c>
       <c r="C166" t="n">
-        <v>37.90699005126953</v>
+        <v>53.23915100097656</v>
       </c>
       <c r="D166" t="n">
-        <v>26.68620109558105</v>
+        <v>23.22350883483887</v>
       </c>
       <c r="E166" t="n">
-        <v>-14.52837181091309</v>
+        <v>-31.34149169921875</v>
       </c>
       <c r="F166" t="n">
-        <v>42.0216064453125</v>
+        <v>13.89433574676514</v>
       </c>
       <c r="G166" t="n">
-        <v>71.51492309570312</v>
+        <v>57.40547943115234</v>
       </c>
       <c r="H166" t="n">
-        <v>-62.99245071411133</v>
+        <v>-77.73893737792969</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.1209710136055946</v>
+        <v>-7.054730318519177e+22</v>
       </c>
       <c r="B167" t="n">
-        <v>5.926370634236036e+25</v>
+        <v>3.1291289654507e+16</v>
       </c>
       <c r="C167" t="n">
-        <v>37.92202758789062</v>
+        <v>53.23794937133789</v>
       </c>
       <c r="D167" t="n">
-        <v>26.67202568054199</v>
+        <v>23.22412490844727</v>
       </c>
       <c r="E167" t="n">
-        <v>-14.53388977050781</v>
+        <v>-31.34022331237793</v>
       </c>
       <c r="F167" t="n">
-        <v>41.99632263183594</v>
+        <v>13.89779949188232</v>
       </c>
       <c r="G167" t="n">
-        <v>71.52272796630859</v>
+        <v>57.40644836425781</v>
       </c>
       <c r="H167" t="n">
-        <v>-62.96388626098633</v>
+        <v>-77.73902893066406</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.1205990833044052</v>
+        <v>-3.527365159259588e+22</v>
       </c>
       <c r="B168" t="n">
-        <v>2.963185317118018e+25</v>
+        <v>1.56456448272535e+16</v>
       </c>
       <c r="C168" t="n">
-        <v>37.93677520751953</v>
+        <v>53.23682022094727</v>
       </c>
       <c r="D168" t="n">
-        <v>26.65813446044922</v>
+        <v>23.22471046447754</v>
       </c>
       <c r="E168" t="n">
-        <v>-14.53928089141846</v>
+        <v>-31.3389892578125</v>
       </c>
       <c r="F168" t="n">
-        <v>41.97159194946289</v>
+        <v>13.901123046875</v>
       </c>
       <c r="G168" t="n">
-        <v>71.53022766113281</v>
+        <v>57.40738296508789</v>
       </c>
       <c r="H168" t="n">
-        <v>-62.93623352050781</v>
+        <v>-77.73912048339844</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.1202347584068775</v>
+        <v>-1.763682579629794e+22</v>
       </c>
       <c r="B169" t="n">
-        <v>1.481592658559009e+25</v>
+        <v>7822822413626745</v>
       </c>
       <c r="C169" t="n">
-        <v>37.95122146606445</v>
+        <v>53.23572540283203</v>
       </c>
       <c r="D169" t="n">
-        <v>26.64453506469727</v>
+        <v>23.22527694702148</v>
       </c>
       <c r="E169" t="n">
-        <v>-14.54454040527344</v>
+        <v>-31.33782005310059</v>
       </c>
       <c r="F169" t="n">
-        <v>41.94739532470703</v>
+        <v>13.9043025970459</v>
       </c>
       <c r="G169" t="n">
-        <v>71.53750610351562</v>
+        <v>57.40828704833984</v>
       </c>
       <c r="H169" t="n">
-        <v>-62.90947341918945</v>
+        <v>-77.73921203613281</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.1198778414726257</v>
+        <v>-8.818412898148971e+21</v>
       </c>
       <c r="B170" t="n">
-        <v>7.407963292795045e+24</v>
+        <v>3911411206813370</v>
       </c>
       <c r="C170" t="n">
-        <v>37.96537399291992</v>
+        <v>53.23468399047852</v>
       </c>
       <c r="D170" t="n">
-        <v>26.63122749328613</v>
+        <v>23.22581672668457</v>
       </c>
       <c r="E170" t="n">
-        <v>-14.5496654510498</v>
+        <v>-31.33669090270996</v>
       </c>
       <c r="F170" t="n">
-        <v>41.92375946044922</v>
+        <v>13.90735721588135</v>
       </c>
       <c r="G170" t="n">
-        <v>71.54450225830078</v>
+        <v>57.40913391113281</v>
       </c>
       <c r="H170" t="n">
-        <v>-62.88357543945312</v>
+        <v>-77.73930358886719</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.1195285141468048</v>
+        <v>-4.409206449074486e+21</v>
       </c>
       <c r="B171" t="n">
-        <v>3.703981646397522e+24</v>
+        <v>1955705603406682</v>
       </c>
       <c r="C171" t="n">
-        <v>37.97922515869141</v>
+        <v>53.23368453979492</v>
       </c>
       <c r="D171" t="n">
-        <v>26.61821174621582</v>
+        <v>23.2263355255127</v>
       </c>
       <c r="E171" t="n">
-        <v>-14.55466270446777</v>
+        <v>-31.33560752868652</v>
       </c>
       <c r="F171" t="n">
-        <v>41.90065002441406</v>
+        <v>13.91028308868408</v>
       </c>
       <c r="G171" t="n">
-        <v>71.55127716064453</v>
+        <v>57.40997695922852</v>
       </c>
       <c r="H171" t="n">
-        <v>-62.85849380493164</v>
+        <v>-77.73935699462891</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.119187273979187</v>
+        <v>-2.204603224537243e+21</v>
       </c>
       <c r="B172" t="n">
-        <v>1.851990823198761e+24</v>
+        <v>977852801703337.8</v>
       </c>
       <c r="C172" t="n">
-        <v>37.99275588989258</v>
+        <v>53.23272323608398</v>
       </c>
       <c r="D172" t="n">
-        <v>26.60549736022949</v>
+        <v>23.22683143615723</v>
       </c>
       <c r="E172" t="n">
-        <v>-14.55953216552734</v>
+        <v>-31.33456420898438</v>
       </c>
       <c r="F172" t="n">
-        <v>41.87808990478516</v>
+        <v>13.91309642791748</v>
       </c>
       <c r="G172" t="n">
-        <v>71.55782318115234</v>
+        <v>57.41077423095703</v>
       </c>
       <c r="H172" t="n">
-        <v>-62.83428955078125</v>
+        <v>-77.73944854736328</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.1188534496724606</v>
+        <v>-1.102301612268621e+21</v>
       </c>
       <c r="B173" t="n">
-        <v>9.259954115993806e+23</v>
+        <v>488926400851665.8</v>
       </c>
       <c r="C173" t="n">
-        <v>38.0059928894043</v>
+        <v>53.23181533813477</v>
       </c>
       <c r="D173" t="n">
-        <v>26.59307670593262</v>
+        <v>23.2273063659668</v>
       </c>
       <c r="E173" t="n">
-        <v>-14.56426906585693</v>
+        <v>-31.33357429504395</v>
       </c>
       <c r="F173" t="n">
-        <v>41.8560791015625</v>
+        <v>13.91579055786133</v>
       </c>
       <c r="G173" t="n">
-        <v>71.56416320800781</v>
+        <v>57.41153335571289</v>
       </c>
       <c r="H173" t="n">
-        <v>-62.81083297729492</v>
+        <v>-77.73951721191406</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.118527507185936</v>
+        <v>-5.511508061343107e+20</v>
       </c>
       <c r="B174" t="n">
-        <v>4.629977057996903e+23</v>
+        <v>244463200425829.8</v>
       </c>
       <c r="C174" t="n">
-        <v>38.01891708374023</v>
+        <v>53.23093414306641</v>
       </c>
       <c r="D174" t="n">
-        <v>26.58094596862793</v>
+        <v>23.22776031494141</v>
       </c>
       <c r="E174" t="n">
-        <v>-14.56887912750244</v>
+        <v>-31.33261680603027</v>
       </c>
       <c r="F174" t="n">
-        <v>41.83459854125977</v>
+        <v>13.91836929321289</v>
       </c>
       <c r="G174" t="n">
-        <v>71.57026672363281</v>
+        <v>57.41225814819336</v>
       </c>
       <c r="H174" t="n">
-        <v>-62.78816986083984</v>
+        <v>-77.73957061767578</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.1182094465196133</v>
+        <v>-2.755754030671553e+20</v>
       </c>
       <c r="B175" t="n">
-        <v>2.314988528998451e+23</v>
+        <v>122231600212911.8</v>
       </c>
       <c r="C175" t="n">
-        <v>38.03152847290039</v>
+        <v>53.23009490966797</v>
       </c>
       <c r="D175" t="n">
-        <v>26.56911659240723</v>
+        <v>23.22819900512695</v>
       </c>
       <c r="E175" t="n">
-        <v>-14.57336139678955</v>
+        <v>-31.33170509338379</v>
       </c>
       <c r="F175" t="n">
-        <v>41.81365585327148</v>
+        <v>13.92084789276123</v>
       </c>
       <c r="G175" t="n">
-        <v>71.57617950439453</v>
+        <v>57.41296768188477</v>
       </c>
       <c r="H175" t="n">
-        <v>-62.7662353515625</v>
+        <v>-77.73963928222656</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.1178990939259529</v>
+        <v>-1.377877015335777e+20</v>
       </c>
       <c r="B176" t="n">
-        <v>1.157494264499226e+23</v>
+        <v>61115800106452.84</v>
       </c>
       <c r="C176" t="n">
-        <v>38.0438346862793</v>
+        <v>53.22929382324219</v>
       </c>
       <c r="D176" t="n">
-        <v>26.55756759643555</v>
+        <v>23.22861480712891</v>
       </c>
       <c r="E176" t="n">
-        <v>-14.57771968841553</v>
+        <v>-31.3308162689209</v>
       </c>
       <c r="F176" t="n">
-        <v>41.7932243347168</v>
+        <v>13.92322063446045</v>
       </c>
       <c r="G176" t="n">
-        <v>71.5819091796875</v>
+        <v>57.41364669799805</v>
       </c>
       <c r="H176" t="n">
-        <v>-62.74505615234375</v>
+        <v>-77.73967742919922</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.1175967179238796</v>
+        <v>-6.889385076678884e+19</v>
       </c>
       <c r="B177" t="n">
-        <v>5.787471322496129e+22</v>
+        <v>30557900053223.35</v>
       </c>
       <c r="C177" t="n">
-        <v>38.05582427978516</v>
+        <v>53.22852325439453</v>
       </c>
       <c r="D177" t="n">
-        <v>26.54630088806152</v>
+        <v>23.22901916503906</v>
       </c>
       <c r="E177" t="n">
-        <v>-14.58195304870605</v>
+        <v>-31.32997512817383</v>
       </c>
       <c r="F177" t="n">
-        <v>41.7733268737793</v>
+        <v>13.92550086975098</v>
       </c>
       <c r="G177" t="n">
-        <v>71.58744812011719</v>
+        <v>57.41426849365234</v>
       </c>
       <c r="H177" t="n">
-        <v>-62.72455215454102</v>
+        <v>-77.73977661132812</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.1173018525540829</v>
+        <v>-3.444692538339442e+19</v>
       </c>
       <c r="B178" t="n">
-        <v>2.893735661248064e+22</v>
+        <v>15278950026608.6</v>
       </c>
       <c r="C178" t="n">
-        <v>38.0675163269043</v>
+        <v>53.227783203125</v>
       </c>
       <c r="D178" t="n">
-        <v>26.53532028198242</v>
+        <v>23.22940063476562</v>
       </c>
       <c r="E178" t="n">
-        <v>-14.58606147766113</v>
+        <v>-31.32916450500488</v>
       </c>
       <c r="F178" t="n">
-        <v>41.75394821166992</v>
+        <v>13.92768669128418</v>
       </c>
       <c r="G178" t="n">
-        <v>71.59281921386719</v>
+        <v>57.4149169921875</v>
       </c>
       <c r="H178" t="n">
-        <v>-62.70473861694336</v>
+        <v>-77.73978424072266</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.1170145846903324</v>
+        <v>-1.722346269169721e+19</v>
       </c>
       <c r="B179" t="n">
-        <v>1.446867830624032e+22</v>
+        <v>7639475013301.225</v>
       </c>
       <c r="C179" t="n">
-        <v>38.07890701293945</v>
+        <v>53.22707748413086</v>
       </c>
       <c r="D179" t="n">
-        <v>26.52461814880371</v>
+        <v>23.22976684570312</v>
       </c>
       <c r="E179" t="n">
-        <v>-14.59004592895508</v>
+        <v>-31.32838821411133</v>
       </c>
       <c r="F179" t="n">
-        <v>41.73506546020508</v>
+        <v>13.92977905273438</v>
       </c>
       <c r="G179" t="n">
-        <v>71.59804534912109</v>
+        <v>57.41550827026367</v>
       </c>
       <c r="H179" t="n">
-        <v>-62.68557357788086</v>
+        <v>-77.73984527587891</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.1167349143326283</v>
+        <v>-8.611731345848605e+18</v>
       </c>
       <c r="B180" t="n">
-        <v>7.234339153120161e+21</v>
+        <v>3819737506647.537</v>
       </c>
       <c r="C180" t="n">
-        <v>38.08999633789062</v>
+        <v>53.22640228271484</v>
       </c>
       <c r="D180" t="n">
-        <v>26.51419448852539</v>
+        <v>23.23012161254883</v>
       </c>
       <c r="E180" t="n">
-        <v>-14.59390926361084</v>
+        <v>-31.32764053344727</v>
       </c>
       <c r="F180" t="n">
-        <v>41.7166862487793</v>
+        <v>13.93178844451904</v>
       </c>
       <c r="G180" t="n">
-        <v>71.60309600830078</v>
+        <v>57.41607284545898</v>
       </c>
       <c r="H180" t="n">
-        <v>-62.66704940795898</v>
+        <v>-77.73991394042969</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.1164627546072006</v>
+        <v>-4.305865672924302e+18</v>
       </c>
       <c r="B181" t="n">
-        <v>3.61716957656008e+21</v>
+        <v>1909868753320.693</v>
       </c>
       <c r="C181" t="n">
-        <v>38.10078811645508</v>
+        <v>53.22574996948242</v>
       </c>
       <c r="D181" t="n">
-        <v>26.5040397644043</v>
+        <v>23.23045921325684</v>
       </c>
       <c r="E181" t="n">
-        <v>-14.59765148162842</v>
+        <v>-31.32691955566406</v>
       </c>
       <c r="F181" t="n">
-        <v>41.69880294799805</v>
+        <v>13.93371391296387</v>
       </c>
       <c r="G181" t="n">
-        <v>71.60798645019531</v>
+        <v>57.41662216186523</v>
       </c>
       <c r="H181" t="n">
-        <v>-62.64911270141602</v>
+        <v>-77.73995208740234</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.1161980897188187</v>
+        <v>-2.152932836462151e+18</v>
       </c>
       <c r="B182" t="n">
-        <v>1.80858478828004e+21</v>
+        <v>954934376657.2706</v>
       </c>
       <c r="C182" t="n">
-        <v>38.11128234863281</v>
+        <v>53.22512817382812</v>
       </c>
       <c r="D182" t="n">
-        <v>26.4941577911377</v>
+        <v>23.23078155517578</v>
       </c>
       <c r="E182" t="n">
-        <v>-14.60127258300781</v>
+        <v>-31.32623291015625</v>
       </c>
       <c r="F182" t="n">
-        <v>41.681396484375</v>
+        <v>13.93556499481201</v>
       </c>
       <c r="G182" t="n">
-        <v>71.61275482177734</v>
+        <v>57.41714477539062</v>
       </c>
       <c r="H182" t="n">
-        <v>-62.63179016113281</v>
+        <v>-77.73996734619141</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.1159407459199429</v>
+        <v>-1.076466418231076e+18</v>
       </c>
       <c r="B183" t="n">
-        <v>9.042923941400201e+20</v>
+        <v>477467188325.5593</v>
       </c>
       <c r="C183" t="n">
-        <v>38.12148666381836</v>
+        <v>53.22453308105469</v>
       </c>
       <c r="D183" t="n">
-        <v>26.48454284667969</v>
+        <v>23.23109436035156</v>
       </c>
       <c r="E183" t="n">
-        <v>-14.60477924346924</v>
+        <v>-31.3255729675293</v>
       </c>
       <c r="F183" t="n">
-        <v>41.66448211669922</v>
+        <v>13.93733406066895</v>
       </c>
       <c r="G183" t="n">
-        <v>71.61737823486328</v>
+        <v>57.41765975952148</v>
       </c>
       <c r="H183" t="n">
-        <v>-62.61505889892578</v>
+        <v>-77.74001312255859</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.1156906126439571</v>
+        <v>-5.382332091155378e+17</v>
       </c>
       <c r="B184" t="n">
-        <v>4.521461970700101e+20</v>
+        <v>238733594159.7035</v>
       </c>
       <c r="C184" t="n">
-        <v>38.13140487670898</v>
+        <v>53.22396469116211</v>
       </c>
       <c r="D184" t="n">
-        <v>26.47518730163574</v>
+        <v>23.23138999938965</v>
       </c>
       <c r="E184" t="n">
-        <v>-14.60816955566406</v>
+        <v>-31.32494163513184</v>
       </c>
       <c r="F184" t="n">
-        <v>41.64802551269531</v>
+        <v>13.93903160095215</v>
       </c>
       <c r="G184" t="n">
-        <v>71.62184143066406</v>
+        <v>57.41813278198242</v>
       </c>
       <c r="H184" t="n">
-        <v>-62.59886169433594</v>
+        <v>-77.74006652832031</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.1154475951194763</v>
+        <v>-2.691166045577689e+17</v>
       </c>
       <c r="B185" t="n">
-        <v>2.26073098535005e+20</v>
+        <v>119366797076.7754</v>
       </c>
       <c r="C185" t="n">
-        <v>38.14104080200195</v>
+        <v>53.22342300415039</v>
       </c>
       <c r="D185" t="n">
-        <v>26.46609306335449</v>
+        <v>23.23167610168457</v>
       </c>
       <c r="E185" t="n">
-        <v>-14.61144542694092</v>
+        <v>-31.32433700561523</v>
       </c>
       <c r="F185" t="n">
-        <v>41.63203430175781</v>
+        <v>13.9406681060791</v>
       </c>
       <c r="G185" t="n">
-        <v>71.62620544433594</v>
+        <v>57.41861343383789</v>
       </c>
       <c r="H185" t="n">
-        <v>-62.58319854736328</v>
+        <v>-77.74010467529297</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.1152117012441158</v>
+        <v>-1.345583022788844e+17</v>
       </c>
       <c r="B186" t="n">
-        <v>1.130365492675025e+20</v>
+        <v>59683398580.4076</v>
       </c>
       <c r="C186" t="n">
-        <v>38.15039443969727</v>
+        <v>53.22289657592773</v>
       </c>
       <c r="D186" t="n">
-        <v>26.45725631713867</v>
+        <v>23.23194885253906</v>
       </c>
       <c r="E186" t="n">
-        <v>-14.6146125793457</v>
+        <v>-31.32374954223633</v>
       </c>
       <c r="F186" t="n">
-        <v>41.61650085449219</v>
+        <v>13.94222450256348</v>
       </c>
       <c r="G186" t="n">
-        <v>71.63043975830078</v>
+        <v>57.4190673828125</v>
       </c>
       <c r="H186" t="n">
-        <v>-62.56807327270508</v>
+        <v>-77.74013519287109</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.1149827335774899</v>
+        <v>-6.7279151139442e+16</v>
       </c>
       <c r="B187" t="n">
-        <v>5.651827463375125e+19</v>
+        <v>29841698808.6511</v>
       </c>
       <c r="C187" t="n">
-        <v>38.15947341918945</v>
+        <v>53.22239303588867</v>
       </c>
       <c r="D187" t="n">
-        <v>26.44866371154785</v>
+        <v>23.23221015930176</v>
       </c>
       <c r="E187" t="n">
-        <v>-14.6176643371582</v>
+        <v>-31.32319641113281</v>
       </c>
       <c r="F187" t="n">
-        <v>41.60141754150391</v>
+        <v>13.94372272491455</v>
       </c>
       <c r="G187" t="n">
-        <v>71.63455200195312</v>
+        <v>57.41947937011719</v>
       </c>
       <c r="H187" t="n">
-        <v>-62.55343627929688</v>
+        <v>-77.74014282226562</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.8083680417273564</v>
+        <v>-3.363957556972738e+16</v>
       </c>
       <c r="B188" t="n">
-        <v>2.825913731687596e+19</v>
+        <v>14920855001.81855</v>
       </c>
       <c r="C188" t="n">
-        <v>38.16828918457031</v>
+        <v>53.2219123840332</v>
       </c>
       <c r="D188" t="n">
-        <v>26.44032287597656</v>
+        <v>23.23246002197266</v>
       </c>
       <c r="E188" t="n">
-        <v>-14.6206169128418</v>
+        <v>-31.32266235351562</v>
       </c>
       <c r="F188" t="n">
-        <v>41.58675384521484</v>
+        <v>13.94516181945801</v>
       </c>
       <c r="G188" t="n">
-        <v>71.63854217529297</v>
+        <v>57.41989135742188</v>
       </c>
       <c r="H188" t="n">
-        <v>-62.53927993774414</v>
+        <v>-77.74018859863281</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.958584134267002</v>
+        <v>-1.681978778468324e+16</v>
       </c>
       <c r="B189" t="n">
-        <v>1.412956865842702e+19</v>
+        <v>7460362512.971469</v>
       </c>
       <c r="C189" t="n">
-        <v>38.17684555053711</v>
+        <v>53.2214469909668</v>
       </c>
       <c r="D189" t="n">
-        <v>26.43221664428711</v>
+        <v>23.23270225524902</v>
       </c>
       <c r="E189" t="n">
-        <v>-14.62346267700195</v>
+        <v>-31.32214546203613</v>
       </c>
       <c r="F189" t="n">
-        <v>41.57251739501953</v>
+        <v>13.94654273986816</v>
       </c>
       <c r="G189" t="n">
-        <v>71.64243316650391</v>
+        <v>57.4202880859375</v>
       </c>
       <c r="H189" t="n">
-        <v>-62.52560043334961</v>
+        <v>-77.74021148681641</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.9910654599029723</v>
+        <v>-8409893897441792</v>
       </c>
       <c r="B190" t="n">
-        <v>7.064784329574696e+18</v>
+        <v>3730935893.354816</v>
       </c>
       <c r="C190" t="n">
-        <v>38.18513488769531</v>
+        <v>53.22100830078125</v>
       </c>
       <c r="D190" t="n">
-        <v>26.42435073852539</v>
+        <v>23.23293495178223</v>
       </c>
       <c r="E190" t="n">
-        <v>-14.62620067596436</v>
+        <v>-31.32164764404297</v>
       </c>
       <c r="F190" t="n">
-        <v>41.5587043762207</v>
+        <v>13.94786167144775</v>
       </c>
       <c r="G190" t="n">
-        <v>71.64621734619141</v>
+        <v>57.42066955566406</v>
       </c>
       <c r="H190" t="n">
-        <v>-62.51237869262695</v>
+        <v>-77.74022674560547</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.9980759897201007</v>
+        <v>-4204946804579000</v>
       </c>
       <c r="B191" t="n">
-        <v>3.53239215288213e+18</v>
+        <v>1856704827.328738</v>
       </c>
       <c r="C191" t="n">
-        <v>38.19316864013672</v>
+        <v>53.2205924987793</v>
       </c>
       <c r="D191" t="n">
-        <v>26.41672325134277</v>
+        <v>23.233154296875</v>
       </c>
       <c r="E191" t="n">
-        <v>-14.62884426116943</v>
+        <v>-31.32118225097656</v>
       </c>
       <c r="F191" t="n">
-        <v>41.54530334472656</v>
+        <v>13.94913101196289</v>
       </c>
       <c r="G191" t="n">
-        <v>71.64990234375</v>
+        <v>57.42103958129883</v>
       </c>
       <c r="H191" t="n">
-        <v>-62.49958038330078</v>
+        <v>-77.74026489257812</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.9995863864386848</v>
+        <v>-2102477475910751</v>
       </c>
       <c r="B192" t="n">
-        <v>1.766196468765811e+18</v>
+        <v>1030117425.352711</v>
       </c>
       <c r="C192" t="n">
-        <v>38.20095443725586</v>
+        <v>53.22017669677734</v>
       </c>
       <c r="D192" t="n">
-        <v>26.4093132019043</v>
+        <v>23.23336601257324</v>
       </c>
       <c r="E192" t="n">
-        <v>-14.63138866424561</v>
+        <v>-31.32072448730469</v>
       </c>
       <c r="F192" t="n">
-        <v>41.53229904174805</v>
+        <v>13.95034599304199</v>
       </c>
       <c r="G192" t="n">
-        <v>71.65349578857422</v>
+        <v>57.42137145996094</v>
       </c>
       <c r="H192" t="n">
-        <v>-62.48723983764648</v>
+        <v>-77.74028778076172</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.999911232048265</v>
+        <v>-1051123616429266</v>
       </c>
       <c r="B193" t="n">
-        <v>8.830853086099218e+17</v>
+        <v>-666774026.167063</v>
       </c>
       <c r="C193" t="n">
-        <v>38.20849990844727</v>
+        <v>53.21979522705078</v>
       </c>
       <c r="D193" t="n">
-        <v>26.40213203430176</v>
+        <v>23.23356819152832</v>
       </c>
       <c r="E193" t="n">
-        <v>-14.63384056091309</v>
+        <v>-31.32029151916504</v>
       </c>
       <c r="F193" t="n">
-        <v>41.51969528198242</v>
+        <v>13.95151710510254</v>
       </c>
       <c r="G193" t="n">
-        <v>71.65697479248047</v>
+        <v>57.42171096801758</v>
       </c>
       <c r="H193" t="n">
-        <v>-62.47529220581055</v>
+        <v>-77.74031829833984</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.9999809798308263</v>
+        <v>-528815065000349.2</v>
       </c>
       <c r="B194" t="n">
-        <v>4.419684220546191e+17</v>
+        <v>13392192065.47336</v>
       </c>
       <c r="C194" t="n">
-        <v>38.21579742431641</v>
+        <v>53.21942138671875</v>
       </c>
       <c r="D194" t="n">
-        <v>26.39516639709473</v>
+        <v>23.23376274108887</v>
       </c>
       <c r="E194" t="n">
-        <v>-14.63619613647461</v>
+        <v>-31.31987190246582</v>
       </c>
       <c r="F194" t="n">
-        <v>41.50746917724609</v>
+        <v>13.95263004302979</v>
       </c>
       <c r="G194" t="n">
-        <v>71.66036224365234</v>
+        <v>57.42204284667969</v>
       </c>
       <c r="H194" t="n">
-        <v>-62.4637336730957</v>
+        <v>-77.74033355712891</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.9999959309827423</v>
+        <v>-172475448888863.3</v>
       </c>
       <c r="B195" t="n">
-        <v>2.069626182690836e+17</v>
+        <v>-152716190896.7593</v>
       </c>
       <c r="C195" t="n">
-        <v>38.22287368774414</v>
+        <v>53.21905899047852</v>
       </c>
       <c r="D195" t="n">
-        <v>26.38841819763184</v>
+        <v>23.23394775390625</v>
       </c>
       <c r="E195" t="n">
-        <v>-14.63846397399902</v>
+        <v>-31.31946563720703</v>
       </c>
       <c r="F195" t="n">
-        <v>41.4956169128418</v>
+        <v>13.95370292663574</v>
       </c>
       <c r="G195" t="n">
-        <v>71.66365814208984</v>
+        <v>57.4223518371582</v>
       </c>
       <c r="H195" t="n">
-        <v>-62.45257949829102</v>
+        <v>-77.74034881591797</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.9999991308332477</v>
+        <v>-2684021279535333</v>
       </c>
       <c r="B196" t="n">
-        <v>5.651528448605125e+17</v>
+        <v>1775162863672.651</v>
       </c>
       <c r="C196" t="n">
-        <v>38.22971725463867</v>
+        <v>53.21872329711914</v>
       </c>
       <c r="D196" t="n">
-        <v>26.38187599182129</v>
+        <v>23.23412704467773</v>
       </c>
       <c r="E196" t="n">
-        <v>-14.64064502716064</v>
+        <v>-31.31907844543457</v>
       </c>
       <c r="F196" t="n">
-        <v>41.48413467407227</v>
+        <v>13.95473289489746</v>
       </c>
       <c r="G196" t="n">
-        <v>71.6668701171875</v>
+        <v>57.42264175415039</v>
       </c>
       <c r="H196" t="n">
-        <v>-62.44178771972656</v>
+        <v>-77.74038696289062</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.999999814614602</v>
+        <v>7.206316207922242e+16</v>
       </c>
       <c r="B197" t="n">
-        <v>-1.491529710744317e+19</v>
+        <v>-20617974748109.67</v>
       </c>
       <c r="C197" t="n">
-        <v>38.2363395690918</v>
+        <v>53.21839141845703</v>
       </c>
       <c r="D197" t="n">
-        <v>26.37553405761719</v>
+        <v>23.23430061340332</v>
       </c>
       <c r="E197" t="n">
-        <v>-14.64274215698242</v>
+        <v>-31.31871604919434</v>
       </c>
       <c r="F197" t="n">
-        <v>41.47300720214844</v>
+        <v>13.95571708679199</v>
       </c>
       <c r="G197" t="n">
-        <v>71.66999816894531</v>
+        <v>57.42292022705078</v>
       </c>
       <c r="H197" t="n">
-        <v>-62.43135070800781</v>
+        <v>-77.74038696289062</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.9999999605155405</v>
+        <v>-2.038111216733154e+18</v>
       </c>
       <c r="B198" t="n">
-        <v>4.927485897583336e+20</v>
+        <v>239488001549753.2</v>
       </c>
       <c r="C198" t="n">
-        <v>38.24275207519531</v>
+        <v>53.21807861328125</v>
       </c>
       <c r="D198" t="n">
-        <v>26.3693904876709</v>
+        <v>23.23446273803711</v>
       </c>
       <c r="E198" t="n">
-        <v>-14.64475440979004</v>
+        <v>-31.31835746765137</v>
       </c>
       <c r="F198" t="n">
-        <v>41.46223449707031</v>
+        <v>13.95666790008545</v>
       </c>
       <c r="G198" t="n">
-        <v>71.67304992675781</v>
+        <v>57.42319869995117</v>
       </c>
       <c r="H198" t="n">
-        <v>-62.4212646484375</v>
+        <v>-77.74040985107422</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.999999991602017</v>
+        <v>5.758659880514653e+19</v>
       </c>
       <c r="B199" t="n">
-        <v>-1.621380982905023e+22</v>
+        <v>-2781855864689207</v>
       </c>
       <c r="C199" t="n">
-        <v>38.24895095825195</v>
+        <v>53.21777725219727</v>
       </c>
       <c r="D199" t="n">
-        <v>26.36344337463379</v>
+        <v>23.23462104797363</v>
       </c>
       <c r="E199" t="n">
-        <v>-14.64669132232666</v>
+        <v>-31.31802177429199</v>
       </c>
       <c r="F199" t="n">
-        <v>41.45178604125977</v>
+        <v>13.95757389068604</v>
       </c>
       <c r="G199" t="n">
-        <v>71.67601776123047</v>
+        <v>57.4234504699707</v>
       </c>
       <c r="H199" t="n">
-        <v>-62.41152572631836</v>
+        <v>-77.74043273925781</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.9999999982162177</v>
+        <v>-1.627089375252455e+21</v>
       </c>
       <c r="B200" t="n">
-        <v>5.334474290807269e+23</v>
+        <v>3.231460683575018e+16</v>
       </c>
       <c r="C200" t="n">
-        <v>38.25493621826172</v>
+        <v>53.21749114990234</v>
       </c>
       <c r="D200" t="n">
-        <v>26.3576831817627</v>
+        <v>23.23476982116699</v>
       </c>
       <c r="E200" t="n">
-        <v>-14.64855098724365</v>
+        <v>-31.31769371032715</v>
       </c>
       <c r="F200" t="n">
-        <v>41.44168472290039</v>
+        <v>13.9584379196167</v>
       </c>
       <c r="G200" t="n">
-        <v>71.67889404296875</v>
+        <v>57.42369842529297</v>
       </c>
       <c r="H200" t="n">
-        <v>-62.40209197998047</v>
+        <v>-77.74041748046875</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.9999999996216054</v>
+        <v>4.59717344017136e+22</v>
       </c>
       <c r="B201" t="n">
-        <v>-1.754777723301219e+25</v>
+        <v>-3.753840129001583e+17</v>
       </c>
       <c r="C201" t="n">
-        <v>38.26072692871094</v>
+        <v>53.21721267700195</v>
       </c>
       <c r="D201" t="n">
-        <v>26.35210609436035</v>
+        <v>23.23491477966309</v>
       </c>
       <c r="E201" t="n">
-        <v>-14.65033435821533</v>
+        <v>-31.3173885345459</v>
       </c>
       <c r="F201" t="n">
-        <v>41.43189239501953</v>
+        <v>13.9592752456665</v>
       </c>
       <c r="G201" t="n">
-        <v>71.68170928955078</v>
+        <v>57.42394256591797</v>
       </c>
       <c r="H201" t="n">
-        <v>-62.39299392700195</v>
+        <v>-77.74046325683594</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.9999999999198317</v>
+        <v>-1.298854771655648e+24</v>
       </c>
       <c r="B202" t="n">
-        <v>5.771375261116549e+26</v>
+        <v>4.3607878957853e+18</v>
       </c>
       <c r="C202" t="n">
-        <v>38.26632308959961</v>
+        <v>53.21694564819336</v>
       </c>
       <c r="D202" t="n">
-        <v>26.34671020507812</v>
+        <v>23.23505401611328</v>
       </c>
       <c r="E202" t="n">
-        <v>-14.65204906463623</v>
+        <v>-31.31708145141602</v>
       </c>
       <c r="F202" t="n">
-        <v>41.42241668701172</v>
+        <v>13.96006965637207</v>
       </c>
       <c r="G202" t="n">
-        <v>71.68444061279297</v>
+        <v>57.42417144775391</v>
       </c>
       <c r="H202" t="n">
-        <v>-62.38419723510742</v>
+        <v>-77.740478515625</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.9999999999830359</v>
+        <v>3.66961890598664e+25</v>
       </c>
       <c r="B203" t="n">
-        <v>-1.897866734310091e+28</v>
+        <v>-5.066008979572734e+19</v>
       </c>
       <c r="C203" t="n">
-        <v>38.27173614501953</v>
+        <v>53.21669387817383</v>
       </c>
       <c r="D203" t="n">
-        <v>26.34148597717285</v>
+        <v>23.23518943786621</v>
       </c>
       <c r="E203" t="n">
-        <v>-14.6536922454834</v>
+        <v>-31.31679534912109</v>
       </c>
       <c r="F203" t="n">
-        <v>41.41324234008789</v>
+        <v>13.96084022521973</v>
       </c>
       <c r="G203" t="n">
-        <v>71.68711090087891</v>
+        <v>57.42438125610352</v>
       </c>
       <c r="H203" t="n">
-        <v>-62.37567520141602</v>
+        <v>-77.74048614501953</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.9999999999964145</v>
+        <v>-5.091985037476812e+26</v>
       </c>
       <c r="B204" t="n">
-        <v>3.072545450322291e+29</v>
+        <v>2.816064331415677e+20</v>
       </c>
       <c r="C204" t="n">
-        <v>39.38866424560547</v>
+        <v>50.42346954345703</v>
       </c>
       <c r="D204" t="n">
-        <v>22.39022636413574</v>
+        <v>20.11478424072266</v>
       </c>
       <c r="E204" t="n">
-        <v>-14.65527153015137</v>
+        <v>-27.33487129211426</v>
       </c>
       <c r="F204" t="n">
-        <v>27.82123947143555</v>
+        <v>7.164543628692627</v>
       </c>
       <c r="G204" t="n">
-        <v>58.15998840332031</v>
+        <v>47.42542266845703</v>
       </c>
       <c r="H204" t="n">
-        <v>-46.26819610595703</v>
+        <v>-58.07661437988281</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.999999999999243</v>
+        <v>-5.091985037476812e+26</v>
       </c>
       <c r="B205" t="n">
-        <v>3.072545450322291e+29</v>
+        <v>2.816064331415677e+20</v>
       </c>
       <c r="C205" t="n">
-        <v>39.38866424560547</v>
+        <v>50.42346954345703</v>
       </c>
       <c r="D205" t="n">
-        <v>22.39022636413574</v>
+        <v>20.11478424072266</v>
       </c>
       <c r="E205" t="n">
-        <v>-14.65678215026855</v>
+        <v>-27.33487129211426</v>
       </c>
       <c r="F205" t="n">
-        <v>27.82123947143555</v>
+        <v>7.164543628692627</v>
       </c>
       <c r="G205" t="n">
-        <v>58.15998840332031</v>
+        <v>47.42542266845703</v>
       </c>
       <c r="H205" t="n">
-        <v>-46.26819610595703</v>
+        <v>-58.07661437988281</v>
       </c>
     </row>
   </sheetData>
